--- a/01_datos/datos_gráficas.xlsx
+++ b/01_datos/datos_gráficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiaguzmanmartinez/GitHub/MCCI_LMFCI2020/01_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378061D0-90B1-CA4A-AB27-1EC03CFBAE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E1FA57-50C5-364B-A15A-07B44D66E07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:J694"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:J694"/>
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/01_datos/datos_gráficas.xlsx
+++ b/01_datos/datos_gráficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiaguzmanmartinez/GitHub/MCCI_LMFCI2020/01_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E1FA57-50C5-364B-A15A-07B44D66E07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5082132-9CC4-334C-8A13-86A2471588FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="E444" sqref="E444:E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15421,7 +15421,7 @@
         <v>12</v>
       </c>
       <c r="E444">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F444">
         <v>70</v>
@@ -15453,7 +15453,7 @@
         <v>12</v>
       </c>
       <c r="E445">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F445">
         <v>61</v>
@@ -15485,7 +15485,7 @@
         <v>12</v>
       </c>
       <c r="E446">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F446">
         <v>81</v>
@@ -15517,7 +15517,7 @@
         <v>12</v>
       </c>
       <c r="E447">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F447">
         <v>86</v>
@@ -15549,7 +15549,7 @@
         <v>12</v>
       </c>
       <c r="E448">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F448">
         <v>93</v>
@@ -15581,7 +15581,7 @@
         <v>12</v>
       </c>
       <c r="E449">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F449">
         <v>43</v>
@@ -15613,7 +15613,7 @@
         <v>12</v>
       </c>
       <c r="E450">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F450">
         <v>51</v>
@@ -15645,7 +15645,7 @@
         <v>12</v>
       </c>
       <c r="E451">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F451">
         <v>82</v>
@@ -15677,7 +15677,7 @@
         <v>12</v>
       </c>
       <c r="E452">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F452">
         <v>90</v>
@@ -15709,7 +15709,7 @@
         <v>12</v>
       </c>
       <c r="E453">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F453">
         <v>91</v>

--- a/01_datos/datos_gráficas.xlsx
+++ b/01_datos/datos_gráficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiaguzmanmartinez/GitHub/MCCI_LMFCI2020/01_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5082132-9CC4-334C-8A13-86A2471588FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12CE342-E4D1-9346-A0E2-42B48F954E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="E444" sqref="E444:E448"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="F463" sqref="F463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16000,7 +16000,7 @@
         <v>2019</v>
       </c>
       <c r="F462">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G462" t="s">
         <v>305</v>
@@ -16096,7 +16096,7 @@
         <v>2020</v>
       </c>
       <c r="F465">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G465" t="s">
         <v>305</v>

--- a/01_datos/datos_gráficas.xlsx
+++ b/01_datos/datos_gráficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiaguzmanmartinez/GitHub/MCCI_LMFCI2020/01_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12CE342-E4D1-9346-A0E2-42B48F954E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57805DDA-4A39-9548-8386-59D659FC1192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5133" uniqueCount="457">
   <si>
     <t>id</t>
   </si>
@@ -700,33 +700,15 @@
     <t>T3_3</t>
   </si>
   <si>
-    <t>Desaprueba la forma en la que AMLO está haciendo su trabajo como Presidente</t>
-  </si>
-  <si>
-    <t>con percepción prospectiva del fenómeno de corrupción a nivel nacional</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Evalúa de forma negativa la forma en la que el gobierno de AMLO está combatiendo la corrupción</t>
-  </si>
-  <si>
     <t>Que permanezca</t>
   </si>
   <si>
-    <t>Cruces por evaluaciones negativas de su gestión (desaprobación presidencial, evaluación negativa en combate a la corrupción, percepciones retrospectivas y prospectivas de la corrupción)</t>
-  </si>
-  <si>
     <t>Que renuncie</t>
   </si>
   <si>
-    <t>La corrupción ha aumentado en los últimos 12 meses</t>
-  </si>
-  <si>
-    <t>La corrupción aumentará en los siguientes 12 meses</t>
-  </si>
-  <si>
     <t>T4_1</t>
   </si>
   <si>
@@ -1357,9 +1339,6 @@
     <t>Gráfica 3.1. En los próximos 12 meses, ¿cree usted que la corrupción en el país aumentará o disminuirá?</t>
   </si>
   <si>
-    <t>Gráfica 3.2. Comparación entre desaprobación presidencial y evaluación negativa del trabajo del gobierno en el combate a la corrupción</t>
-  </si>
-  <si>
     <t>Gráfica 3.3. Intención de voto para que Andrés Manuel López Obrador permanezca o renuncie al cargo</t>
   </si>
   <si>
@@ -1397,6 +1376,21 @@
   </si>
   <si>
     <t>Gráfica 13.4. Desde su punto de vista, ¿qué tanta responsabilidad tiene los ciudadanos en el combate a la corrupción?</t>
+  </si>
+  <si>
+    <t>Gráfica 3.2 ¿Cree usted que la corrupción aumentará o disminuirá?</t>
+  </si>
+  <si>
+    <t>Entre quienes desaprueban el trabajo del presidente</t>
+  </si>
+  <si>
+    <t>Entre quienes desaprueban de la labor anticorrupción del gobierno</t>
+  </si>
+  <si>
+    <t>Entre quienes creen que la corrupción aumentará en los próximos 12 meses</t>
+  </si>
+  <si>
+    <t>Entre quienes creen que la corrupción ha aumentado en los últimos 12 meses</t>
   </si>
 </sst>
 </file>
@@ -1747,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="F463" sqref="F463"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="G335" sqref="G335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4977,7 +4971,7 @@
         <v>76</v>
       </c>
       <c r="G106" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H106" t="s">
         <v>123</v>
@@ -5009,7 +5003,7 @@
         <v>23</v>
       </c>
       <c r="G107" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H107" t="s">
         <v>123</v>
@@ -5041,7 +5035,7 @@
         <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H108" t="s">
         <v>125</v>
@@ -5073,7 +5067,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H109" t="s">
         <v>125</v>
@@ -5105,7 +5099,7 @@
         <v>81</v>
       </c>
       <c r="G110" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H110" t="s">
         <v>126</v>
@@ -5137,7 +5131,7 @@
         <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H111" t="s">
         <v>126</v>
@@ -5169,7 +5163,7 @@
         <v>83</v>
       </c>
       <c r="G112" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H112" t="s">
         <v>123</v>
@@ -5201,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H113" t="s">
         <v>123</v>
@@ -5233,7 +5227,7 @@
         <v>75</v>
       </c>
       <c r="G114" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H114" t="s">
         <v>125</v>
@@ -5265,7 +5259,7 @@
         <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H115" t="s">
         <v>125</v>
@@ -5297,7 +5291,7 @@
         <v>84</v>
       </c>
       <c r="G116" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H116" t="s">
         <v>126</v>
@@ -5329,7 +5323,7 @@
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H117" t="s">
         <v>126</v>
@@ -5361,7 +5355,7 @@
         <v>85.74</v>
       </c>
       <c r="G118" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H118" t="s">
         <v>83</v>
@@ -5393,7 +5387,7 @@
         <v>13.4</v>
       </c>
       <c r="G119" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H119" t="s">
         <v>83</v>
@@ -5425,7 +5419,7 @@
         <v>0.86</v>
       </c>
       <c r="G120" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H120" t="s">
         <v>83</v>
@@ -5457,7 +5451,7 @@
         <v>89.13</v>
       </c>
       <c r="G121" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H121" t="s">
         <v>83</v>
@@ -5489,7 +5483,7 @@
         <v>9.85</v>
       </c>
       <c r="G122" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H122" t="s">
         <v>83</v>
@@ -5521,7 +5515,7 @@
         <v>1.02</v>
       </c>
       <c r="G123" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H123" t="s">
         <v>83</v>
@@ -5553,7 +5547,7 @@
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H124" t="s">
         <v>132</v>
@@ -5585,7 +5579,7 @@
         <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H125" t="s">
         <v>132</v>
@@ -5617,7 +5611,7 @@
         <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H126" t="s">
         <v>132</v>
@@ -5649,7 +5643,7 @@
         <v>25</v>
       </c>
       <c r="G127" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H127" t="s">
         <v>132</v>
@@ -5681,7 +5675,7 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H128" t="s">
         <v>132</v>
@@ -5713,7 +5707,7 @@
         <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H129" t="s">
         <v>132</v>
@@ -5745,7 +5739,7 @@
         <v>63.63</v>
       </c>
       <c r="G130" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H130" t="s">
         <v>83</v>
@@ -5777,7 +5771,7 @@
         <v>23.1</v>
       </c>
       <c r="G131" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H131" t="s">
         <v>83</v>
@@ -5809,7 +5803,7 @@
         <v>11.02</v>
       </c>
       <c r="G132" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H132" t="s">
         <v>83</v>
@@ -5841,7 +5835,7 @@
         <v>1.38</v>
       </c>
       <c r="G133" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H133" t="s">
         <v>83</v>
@@ -5873,7 +5867,7 @@
         <v>68</v>
       </c>
       <c r="G134" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H134" t="s">
         <v>83</v>
@@ -5905,7 +5899,7 @@
         <v>22</v>
       </c>
       <c r="G135" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H135" t="s">
         <v>83</v>
@@ -5937,7 +5931,7 @@
         <v>8</v>
       </c>
       <c r="G136" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H136" t="s">
         <v>83</v>
@@ -5969,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H137" t="s">
         <v>83</v>
@@ -11367,7 +11361,7 @@
         <v>52</v>
       </c>
       <c r="G316" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I316" t="s">
         <v>53</v>
@@ -11396,7 +11390,7 @@
         <v>17</v>
       </c>
       <c r="G317" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I317" t="s">
         <v>53</v>
@@ -11425,7 +11419,7 @@
         <v>23</v>
       </c>
       <c r="G318" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I318" t="s">
         <v>53</v>
@@ -11454,7 +11448,7 @@
         <v>8</v>
       </c>
       <c r="G319" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I319" t="s">
         <v>53</v>
@@ -11483,7 +11477,7 @@
         <v>31</v>
       </c>
       <c r="G320" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I320" t="s">
         <v>53</v>
@@ -11512,7 +11506,7 @@
         <v>19</v>
       </c>
       <c r="G321" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I321" t="s">
         <v>53</v>
@@ -11541,7 +11535,7 @@
         <v>43</v>
       </c>
       <c r="G322" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I322" t="s">
         <v>53</v>
@@ -11570,7 +11564,7 @@
         <v>7</v>
       </c>
       <c r="G323" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I323" t="s">
         <v>53</v>
@@ -11590,7 +11584,7 @@
         <v>28</v>
       </c>
       <c r="D324" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="E324">
         <v>2020</v>
@@ -11599,16 +11593,13 @@
         <v>60</v>
       </c>
       <c r="G324" t="s">
-        <v>445</v>
-      </c>
-      <c r="H324" t="s">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="I324" t="s">
         <v>53</v>
       </c>
       <c r="J324" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -11622,25 +11613,22 @@
         <v>21</v>
       </c>
       <c r="D325" t="s">
+        <v>453</v>
+      </c>
+      <c r="E325">
+        <v>2020</v>
+      </c>
+      <c r="F325">
+        <v>16</v>
+      </c>
+      <c r="G325" t="s">
+        <v>452</v>
+      </c>
+      <c r="I325" t="s">
+        <v>53</v>
+      </c>
+      <c r="J325" t="s">
         <v>226</v>
-      </c>
-      <c r="E325">
-        <v>2020</v>
-      </c>
-      <c r="F325">
-        <v>16</v>
-      </c>
-      <c r="G325" t="s">
-        <v>445</v>
-      </c>
-      <c r="H325" t="s">
-        <v>227</v>
-      </c>
-      <c r="I325" t="s">
-        <v>53</v>
-      </c>
-      <c r="J325" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -11654,7 +11642,7 @@
         <v>28</v>
       </c>
       <c r="D326" t="s">
-        <v>229</v>
+        <v>454</v>
       </c>
       <c r="E326">
         <v>2020</v>
@@ -11663,16 +11651,13 @@
         <v>70</v>
       </c>
       <c r="G326" t="s">
-        <v>445</v>
-      </c>
-      <c r="H326" t="s">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="I326" t="s">
         <v>53</v>
       </c>
       <c r="J326" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -11686,7 +11671,7 @@
         <v>21</v>
       </c>
       <c r="D327" t="s">
-        <v>229</v>
+        <v>454</v>
       </c>
       <c r="E327">
         <v>2020</v>
@@ -11695,16 +11680,13 @@
         <v>9</v>
       </c>
       <c r="G327" t="s">
-        <v>445</v>
-      </c>
-      <c r="H327" t="s">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="I327" t="s">
         <v>53</v>
       </c>
       <c r="J327" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
@@ -11712,13 +11694,13 @@
         <v>225</v>
       </c>
       <c r="B328" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C328" t="s">
         <v>21</v>
       </c>
       <c r="D328" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="E328">
         <v>2020</v>
@@ -11727,16 +11709,13 @@
         <v>19</v>
       </c>
       <c r="G328" t="s">
-        <v>446</v>
-      </c>
-      <c r="H328" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I328" t="s">
         <v>53</v>
       </c>
       <c r="J328" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -11744,13 +11723,13 @@
         <v>225</v>
       </c>
       <c r="B329" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C329" t="s">
         <v>21</v>
       </c>
       <c r="D329" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="E329">
         <v>2020</v>
@@ -11759,16 +11738,13 @@
         <v>69</v>
       </c>
       <c r="G329" t="s">
-        <v>446</v>
-      </c>
-      <c r="H329" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I329" t="s">
         <v>53</v>
       </c>
       <c r="J329" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -11776,13 +11752,13 @@
         <v>225</v>
       </c>
       <c r="B330" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
       </c>
       <c r="D330" t="s">
-        <v>229</v>
+        <v>454</v>
       </c>
       <c r="E330">
         <v>2020</v>
@@ -11791,16 +11767,13 @@
         <v>19</v>
       </c>
       <c r="G330" t="s">
-        <v>446</v>
-      </c>
-      <c r="H330" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I330" t="s">
         <v>53</v>
       </c>
       <c r="J330" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -11808,13 +11781,13 @@
         <v>225</v>
       </c>
       <c r="B331" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
       </c>
       <c r="D331" t="s">
-        <v>229</v>
+        <v>454</v>
       </c>
       <c r="E331">
         <v>2020</v>
@@ -11823,16 +11796,13 @@
         <v>72</v>
       </c>
       <c r="G331" t="s">
-        <v>446</v>
-      </c>
-      <c r="H331" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I331" t="s">
         <v>53</v>
       </c>
       <c r="J331" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -11840,13 +11810,13 @@
         <v>225</v>
       </c>
       <c r="B332" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C332" t="s">
         <v>26</v>
       </c>
       <c r="D332" t="s">
-        <v>233</v>
+        <v>456</v>
       </c>
       <c r="E332">
         <v>2020</v>
@@ -11855,16 +11825,13 @@
         <v>46</v>
       </c>
       <c r="G332" t="s">
-        <v>446</v>
-      </c>
-      <c r="H332" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I332" t="s">
         <v>53</v>
       </c>
       <c r="J332" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -11872,13 +11839,13 @@
         <v>225</v>
       </c>
       <c r="B333" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C333" t="s">
         <v>26</v>
       </c>
       <c r="D333" t="s">
-        <v>233</v>
+        <v>456</v>
       </c>
       <c r="E333">
         <v>2020</v>
@@ -11887,16 +11854,13 @@
         <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>446</v>
-      </c>
-      <c r="H333" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I333" t="s">
         <v>53</v>
       </c>
       <c r="J333" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -11904,13 +11868,13 @@
         <v>225</v>
       </c>
       <c r="B334" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C334" t="s">
         <v>30</v>
       </c>
       <c r="D334" t="s">
-        <v>234</v>
+        <v>455</v>
       </c>
       <c r="E334">
         <v>2020</v>
@@ -11919,16 +11883,13 @@
         <v>44</v>
       </c>
       <c r="G334" t="s">
-        <v>446</v>
-      </c>
-      <c r="H334" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I334" t="s">
         <v>53</v>
       </c>
       <c r="J334" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -11936,13 +11897,13 @@
         <v>225</v>
       </c>
       <c r="B335" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C335" t="s">
         <v>30</v>
       </c>
       <c r="D335" t="s">
-        <v>234</v>
+        <v>455</v>
       </c>
       <c r="E335">
         <v>2020</v>
@@ -11951,24 +11912,21 @@
         <v>48</v>
       </c>
       <c r="G335" t="s">
-        <v>446</v>
-      </c>
-      <c r="H335" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="I335" t="s">
         <v>53</v>
       </c>
       <c r="J335" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B336" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C336" t="s">
         <v>21</v>
@@ -11983,7 +11941,7 @@
         <v>64</v>
       </c>
       <c r="G336" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H336" t="s">
         <v>23</v>
@@ -11997,10 +11955,10 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B337" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C337" t="s">
         <v>21</v>
@@ -12015,7 +11973,7 @@
         <v>50</v>
       </c>
       <c r="G337" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H337" t="s">
         <v>23</v>
@@ -12029,10 +11987,10 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B338" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -12047,7 +12005,7 @@
         <v>22</v>
       </c>
       <c r="G338" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H338" t="s">
         <v>23</v>
@@ -12061,10 +12019,10 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B339" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -12079,7 +12037,7 @@
         <v>38</v>
       </c>
       <c r="G339" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H339" t="s">
         <v>23</v>
@@ -12093,7 +12051,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B340" t="s">
         <v>29</v>
@@ -12111,7 +12069,7 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H340" t="s">
         <v>23</v>
@@ -12125,7 +12083,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B341" t="s">
         <v>29</v>
@@ -12143,7 +12101,7 @@
         <v>12</v>
       </c>
       <c r="G341" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H341" t="s">
         <v>23</v>
@@ -12157,10 +12115,10 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B342" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C342" t="s">
         <v>26</v>
@@ -12175,7 +12133,7 @@
         <v>22</v>
       </c>
       <c r="G342" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H342" t="s">
         <v>83</v>
@@ -12189,10 +12147,10 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B343" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -12207,7 +12165,7 @@
         <v>25</v>
       </c>
       <c r="G343" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H343" t="s">
         <v>83</v>
@@ -12221,10 +12179,10 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B344" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C344" t="s">
         <v>21</v>
@@ -12239,7 +12197,7 @@
         <v>50</v>
       </c>
       <c r="G344" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H344" t="s">
         <v>83</v>
@@ -12253,7 +12211,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B345" t="s">
         <v>29</v>
@@ -12271,7 +12229,7 @@
         <v>1</v>
       </c>
       <c r="G345" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H345" t="s">
         <v>83</v>
@@ -12285,10 +12243,10 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B346" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C346" t="s">
         <v>30</v>
@@ -12303,7 +12261,7 @@
         <v>2</v>
       </c>
       <c r="G346" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H346" t="s">
         <v>83</v>
@@ -12317,10 +12275,10 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B347" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C347" t="s">
         <v>26</v>
@@ -12335,7 +12293,7 @@
         <v>23</v>
       </c>
       <c r="G347" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H347" t="s">
         <v>83</v>
@@ -12349,10 +12307,10 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B348" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -12367,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="G348" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H348" t="s">
         <v>83</v>
@@ -12381,10 +12339,10 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
+        <v>233</v>
+      </c>
+      <c r="B349" t="s">
         <v>239</v>
-      </c>
-      <c r="B349" t="s">
-        <v>245</v>
       </c>
       <c r="C349" t="s">
         <v>21</v>
@@ -12399,7 +12357,7 @@
         <v>32</v>
       </c>
       <c r="G349" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H349" t="s">
         <v>83</v>
@@ -12413,10 +12371,10 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B350" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C350" t="s">
         <v>58</v>
@@ -12431,7 +12389,7 @@
         <v>39</v>
       </c>
       <c r="G350" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H350" t="s">
         <v>83</v>
@@ -12445,7 +12403,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B351" t="s">
         <v>29</v>
@@ -12463,7 +12421,7 @@
         <v>2</v>
       </c>
       <c r="G351" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H351" t="s">
         <v>83</v>
@@ -12477,10 +12435,10 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B352" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C352" t="s">
         <v>30</v>
@@ -12495,7 +12453,7 @@
         <v>3</v>
       </c>
       <c r="G352" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H352" t="s">
         <v>83</v>
@@ -12509,10 +12467,10 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B353" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C353" t="s">
         <v>21</v>
@@ -12527,7 +12485,7 @@
         <v>93</v>
       </c>
       <c r="G353" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H353" t="s">
         <v>83</v>
@@ -12541,10 +12499,10 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B354" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C354" t="s">
         <v>21</v>
@@ -12559,7 +12517,7 @@
         <v>91</v>
       </c>
       <c r="G354" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H354" t="s">
         <v>83</v>
@@ -12573,10 +12531,10 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B355" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -12591,7 +12549,7 @@
         <v>81</v>
       </c>
       <c r="G355" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H355" t="s">
         <v>83</v>
@@ -12605,10 +12563,10 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B356" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -12623,7 +12581,7 @@
         <v>82</v>
       </c>
       <c r="G356" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H356" t="s">
         <v>83</v>
@@ -12637,7 +12595,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B357" t="s">
         <v>110</v>
@@ -12655,7 +12613,7 @@
         <v>61</v>
       </c>
       <c r="G357" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H357" t="s">
         <v>23</v>
@@ -12669,7 +12627,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B358" t="s">
         <v>110</v>
@@ -12687,7 +12645,7 @@
         <v>51</v>
       </c>
       <c r="G358" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H358" t="s">
         <v>23</v>
@@ -12701,7 +12659,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B359" t="s">
         <v>113</v>
@@ -12719,7 +12677,7 @@
         <v>35</v>
       </c>
       <c r="G359" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H359" t="s">
         <v>23</v>
@@ -12733,7 +12691,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B360" t="s">
         <v>113</v>
@@ -12751,7 +12709,7 @@
         <v>44</v>
       </c>
       <c r="G360" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H360" t="s">
         <v>23</v>
@@ -12765,7 +12723,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B361" t="s">
         <v>29</v>
@@ -12783,7 +12741,7 @@
         <v>5</v>
       </c>
       <c r="G361" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H361" t="s">
         <v>23</v>
@@ -12797,7 +12755,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B362" t="s">
         <v>29</v>
@@ -12815,7 +12773,7 @@
         <v>5</v>
       </c>
       <c r="G362" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H362" t="s">
         <v>23</v>
@@ -12829,7 +12787,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B363" t="s">
         <v>204</v>
@@ -12847,7 +12805,7 @@
         <v>55</v>
       </c>
       <c r="G363" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H363" t="s">
         <v>83</v>
@@ -12861,7 +12819,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B364" t="s">
         <v>204</v>
@@ -12879,7 +12837,7 @@
         <v>58</v>
       </c>
       <c r="G364" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H364" t="s">
         <v>83</v>
@@ -12893,7 +12851,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B365" t="s">
         <v>117</v>
@@ -12911,7 +12869,7 @@
         <v>17</v>
       </c>
       <c r="G365" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H365" t="s">
         <v>83</v>
@@ -12925,7 +12883,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B366" t="s">
         <v>117</v>
@@ -12943,7 +12901,7 @@
         <v>12</v>
       </c>
       <c r="G366" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H366" t="s">
         <v>83</v>
@@ -12957,7 +12915,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B367" t="s">
         <v>118</v>
@@ -12975,7 +12933,7 @@
         <v>7</v>
       </c>
       <c r="G367" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H367" t="s">
         <v>83</v>
@@ -12989,7 +12947,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B368" t="s">
         <v>118</v>
@@ -13007,7 +12965,7 @@
         <v>7</v>
       </c>
       <c r="G368" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H368" t="s">
         <v>83</v>
@@ -13021,7 +12979,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B369" t="s">
         <v>207</v>
@@ -13039,7 +12997,7 @@
         <v>8</v>
       </c>
       <c r="G369" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H369" t="s">
         <v>83</v>
@@ -13053,7 +13011,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B370" t="s">
         <v>207</v>
@@ -13071,7 +13029,7 @@
         <v>5</v>
       </c>
       <c r="G370" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H370" t="s">
         <v>83</v>
@@ -13085,10 +13043,10 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B371" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C371" t="s">
         <v>96</v>
@@ -13100,7 +13058,7 @@
         <v>2019</v>
       </c>
       <c r="G371" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H371" t="s">
         <v>83</v>
@@ -13114,10 +13072,10 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B372" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C372" t="s">
         <v>96</v>
@@ -13132,7 +13090,7 @@
         <v>4</v>
       </c>
       <c r="G372" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H372" t="s">
         <v>83</v>
@@ -13146,10 +13104,10 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B373" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C373" t="s">
         <v>98</v>
@@ -13164,7 +13122,7 @@
         <v>3</v>
       </c>
       <c r="G373" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H373" t="s">
         <v>83</v>
@@ -13178,10 +13136,10 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B374" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C374" t="s">
         <v>98</v>
@@ -13196,7 +13154,7 @@
         <v>4</v>
       </c>
       <c r="G374" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H374" t="s">
         <v>83</v>
@@ -13210,13 +13168,13 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B375" t="s">
         <v>119</v>
       </c>
       <c r="C375" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D375" t="s">
         <v>12</v>
@@ -13228,7 +13186,7 @@
         <v>5</v>
       </c>
       <c r="G375" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H375" t="s">
         <v>83</v>
@@ -13242,13 +13200,13 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B376" t="s">
         <v>119</v>
       </c>
       <c r="C376" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D376" t="s">
         <v>12</v>
@@ -13260,7 +13218,7 @@
         <v>2</v>
       </c>
       <c r="G376" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H376" t="s">
         <v>83</v>
@@ -13274,13 +13232,13 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>246</v>
+      </c>
+      <c r="B377" t="s">
+        <v>251</v>
+      </c>
+      <c r="C377" t="s">
         <v>252</v>
-      </c>
-      <c r="B377" t="s">
-        <v>257</v>
-      </c>
-      <c r="C377" t="s">
-        <v>258</v>
       </c>
       <c r="D377" t="s">
         <v>12</v>
@@ -13292,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="G377" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H377" t="s">
         <v>83</v>
@@ -13306,13 +13264,13 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>246</v>
+      </c>
+      <c r="B378" t="s">
+        <v>251</v>
+      </c>
+      <c r="C378" t="s">
         <v>252</v>
-      </c>
-      <c r="B378" t="s">
-        <v>257</v>
-      </c>
-      <c r="C378" t="s">
-        <v>258</v>
       </c>
       <c r="D378" t="s">
         <v>12</v>
@@ -13324,7 +13282,7 @@
         <v>2</v>
       </c>
       <c r="G378" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H378" t="s">
         <v>83</v>
@@ -13338,13 +13296,13 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B379" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C379" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D379" t="s">
         <v>12</v>
@@ -13353,7 +13311,7 @@
         <v>2019</v>
       </c>
       <c r="G379" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H379" t="s">
         <v>83</v>
@@ -13367,13 +13325,13 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B380" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C380" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D380" t="s">
         <v>12</v>
@@ -13385,7 +13343,7 @@
         <v>2</v>
       </c>
       <c r="G380" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H380" t="s">
         <v>83</v>
@@ -13399,13 +13357,13 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B381" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C381" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D381" t="s">
         <v>12</v>
@@ -13417,7 +13375,7 @@
         <v>1</v>
       </c>
       <c r="G381" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H381" t="s">
         <v>83</v>
@@ -13431,13 +13389,13 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B382" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C382" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D382" t="s">
         <v>12</v>
@@ -13449,7 +13407,7 @@
         <v>1</v>
       </c>
       <c r="G382" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H382" t="s">
         <v>83</v>
@@ -13463,13 +13421,13 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B383" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C383" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D383" t="s">
         <v>12</v>
@@ -13478,7 +13436,7 @@
         <v>2019</v>
       </c>
       <c r="G383" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H383" t="s">
         <v>83</v>
@@ -13492,13 +13450,13 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B384" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C384" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D384" t="s">
         <v>12</v>
@@ -13510,7 +13468,7 @@
         <v>0.3</v>
       </c>
       <c r="G384" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H384" t="s">
         <v>83</v>
@@ -13524,13 +13482,13 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B385" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C385" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D385" t="s">
         <v>12</v>
@@ -13539,7 +13497,7 @@
         <v>2019</v>
       </c>
       <c r="G385" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H385" t="s">
         <v>83</v>
@@ -13553,13 +13511,13 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B386" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C386" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D386" t="s">
         <v>12</v>
@@ -13571,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="G386" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H386" t="s">
         <v>83</v>
@@ -13585,13 +13543,13 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B387" t="s">
         <v>29</v>
       </c>
       <c r="C387" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D387" t="s">
         <v>12</v>
@@ -13603,7 +13561,7 @@
         <v>4</v>
       </c>
       <c r="G387" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H387" t="s">
         <v>83</v>
@@ -13617,13 +13575,13 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B388" t="s">
         <v>29</v>
       </c>
       <c r="C388" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D388" t="s">
         <v>12</v>
@@ -13635,7 +13593,7 @@
         <v>2</v>
       </c>
       <c r="G388" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H388" t="s">
         <v>83</v>
@@ -13649,10 +13607,10 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B389" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C389" t="s">
         <v>12</v>
@@ -13667,13 +13625,13 @@
         <v>15</v>
       </c>
       <c r="G389" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H389" t="s">
         <v>131</v>
       </c>
       <c r="I389" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J389" t="s">
         <v>16</v>
@@ -13681,10 +13639,10 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B390" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C390" t="s">
         <v>12</v>
@@ -13699,13 +13657,13 @@
         <v>16</v>
       </c>
       <c r="G390" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H390" t="s">
         <v>131</v>
       </c>
       <c r="I390" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J390" t="s">
         <v>16</v>
@@ -13713,10 +13671,10 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B391" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C391" t="s">
         <v>12</v>
@@ -13731,13 +13689,13 @@
         <v>12</v>
       </c>
       <c r="G391" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H391" t="s">
         <v>131</v>
       </c>
       <c r="I391" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J391" t="s">
         <v>16</v>
@@ -13745,10 +13703,10 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B392" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C392" t="s">
         <v>12</v>
@@ -13763,13 +13721,13 @@
         <v>13</v>
       </c>
       <c r="G392" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H392" t="s">
         <v>131</v>
       </c>
       <c r="I392" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J392" t="s">
         <v>16</v>
@@ -13777,10 +13735,10 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B393" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C393" t="s">
         <v>12</v>
@@ -13795,13 +13753,13 @@
         <v>10</v>
       </c>
       <c r="G393" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H393" t="s">
         <v>131</v>
       </c>
       <c r="I393" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J393" t="s">
         <v>16</v>
@@ -13809,7 +13767,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B394" t="s">
         <v>131</v>
@@ -13827,7 +13785,7 @@
         <v>12</v>
       </c>
       <c r="G394" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H394" t="s">
         <v>132</v>
@@ -13841,7 +13799,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B395" t="s">
         <v>131</v>
@@ -13859,7 +13817,7 @@
         <v>13</v>
       </c>
       <c r="G395" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H395" t="s">
         <v>132</v>
@@ -13873,7 +13831,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B396" t="s">
         <v>131</v>
@@ -13891,7 +13849,7 @@
         <v>10</v>
       </c>
       <c r="G396" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H396" t="s">
         <v>132</v>
@@ -13905,7 +13863,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B397" t="s">
         <v>133</v>
@@ -13923,7 +13881,7 @@
         <v>25</v>
       </c>
       <c r="G397" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H397" t="s">
         <v>132</v>
@@ -13937,7 +13895,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B398" t="s">
         <v>133</v>
@@ -13955,7 +13913,7 @@
         <v>22</v>
       </c>
       <c r="G398" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H398" t="s">
         <v>132</v>
@@ -13969,7 +13927,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B399" t="s">
         <v>133</v>
@@ -13987,7 +13945,7 @@
         <v>13</v>
       </c>
       <c r="G399" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H399" t="s">
         <v>132</v>
@@ -14001,7 +13959,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B400" t="s">
         <v>115</v>
@@ -14019,13 +13977,13 @@
         <v>69</v>
       </c>
       <c r="G400" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H400" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I400" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J400" t="s">
         <v>116</v>
@@ -14033,7 +13991,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B401" t="s">
         <v>117</v>
@@ -14051,13 +14009,13 @@
         <v>53</v>
       </c>
       <c r="G401" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H401" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I401" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J401" t="s">
         <v>116</v>
@@ -14065,7 +14023,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B402" t="s">
         <v>118</v>
@@ -14083,13 +14041,13 @@
         <v>55</v>
       </c>
       <c r="G402" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H402" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I402" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J402" t="s">
         <v>116</v>
@@ -14097,7 +14055,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B403" t="s">
         <v>119</v>
@@ -14115,13 +14073,13 @@
         <v>40</v>
       </c>
       <c r="G403" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H403" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I403" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J403" t="s">
         <v>116</v>
@@ -14129,7 +14087,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B404" t="s">
         <v>120</v>
@@ -14147,13 +14105,13 @@
         <v>27</v>
       </c>
       <c r="G404" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H404" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I404" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J404" t="s">
         <v>116</v>
@@ -14161,7 +14119,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B405" t="s">
         <v>115</v>
@@ -14179,13 +14137,13 @@
         <v>70</v>
       </c>
       <c r="G405" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H405" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I405" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J405" t="s">
         <v>116</v>
@@ -14193,7 +14151,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B406" t="s">
         <v>117</v>
@@ -14211,13 +14169,13 @@
         <v>49</v>
       </c>
       <c r="G406" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H406" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I406" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J406" t="s">
         <v>116</v>
@@ -14225,7 +14183,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B407" t="s">
         <v>118</v>
@@ -14243,13 +14201,13 @@
         <v>51</v>
       </c>
       <c r="G407" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H407" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I407" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J407" t="s">
         <v>116</v>
@@ -14257,7 +14215,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B408" t="s">
         <v>119</v>
@@ -14275,13 +14233,13 @@
         <v>39</v>
       </c>
       <c r="G408" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H408" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I408" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J408" t="s">
         <v>116</v>
@@ -14289,7 +14247,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B409" t="s">
         <v>120</v>
@@ -14307,13 +14265,13 @@
         <v>31</v>
       </c>
       <c r="G409" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H409" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I409" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J409" t="s">
         <v>116</v>
@@ -14321,7 +14279,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B410" t="s">
         <v>115</v>
@@ -14339,13 +14297,13 @@
         <v>66</v>
       </c>
       <c r="G410" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H410" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I410" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J410" t="s">
         <v>116</v>
@@ -14353,7 +14311,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B411" t="s">
         <v>117</v>
@@ -14371,13 +14329,13 @@
         <v>51</v>
       </c>
       <c r="G411" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H411" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I411" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J411" t="s">
         <v>116</v>
@@ -14385,7 +14343,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B412" t="s">
         <v>118</v>
@@ -14403,13 +14361,13 @@
         <v>41</v>
       </c>
       <c r="G412" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H412" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I412" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J412" t="s">
         <v>116</v>
@@ -14417,7 +14375,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B413" t="s">
         <v>119</v>
@@ -14435,13 +14393,13 @@
         <v>36</v>
       </c>
       <c r="G413" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H413" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I413" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J413" t="s">
         <v>116</v>
@@ -14449,7 +14407,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B414" t="s">
         <v>120</v>
@@ -14467,13 +14425,13 @@
         <v>35</v>
       </c>
       <c r="G414" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H414" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I414" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J414" t="s">
         <v>116</v>
@@ -14481,7 +14439,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B415" t="s">
         <v>115</v>
@@ -14499,13 +14457,13 @@
         <v>74</v>
       </c>
       <c r="G415" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H415" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I415" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J415" t="s">
         <v>116</v>
@@ -14513,7 +14471,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B416" t="s">
         <v>117</v>
@@ -14531,13 +14489,13 @@
         <v>57</v>
       </c>
       <c r="G416" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H416" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I416" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J416" t="s">
         <v>116</v>
@@ -14545,7 +14503,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B417" t="s">
         <v>118</v>
@@ -14563,13 +14521,13 @@
         <v>33</v>
       </c>
       <c r="G417" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H417" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I417" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J417" t="s">
         <v>116</v>
@@ -14577,7 +14535,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B418" t="s">
         <v>119</v>
@@ -14595,13 +14553,13 @@
         <v>31</v>
       </c>
       <c r="G418" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H418" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I418" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J418" t="s">
         <v>116</v>
@@ -14609,7 +14567,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B419" t="s">
         <v>120</v>
@@ -14627,13 +14585,13 @@
         <v>39</v>
       </c>
       <c r="G419" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H419" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I419" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J419" t="s">
         <v>116</v>
@@ -14641,7 +14599,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B420" t="s">
         <v>115</v>
@@ -14659,13 +14617,13 @@
         <v>79</v>
       </c>
       <c r="G420" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H420" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I420" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J420" t="s">
         <v>116</v>
@@ -14673,7 +14631,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B421" t="s">
         <v>117</v>
@@ -14691,13 +14649,13 @@
         <v>53</v>
       </c>
       <c r="G421" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H421" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I421" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J421" t="s">
         <v>116</v>
@@ -14705,7 +14663,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B422" t="s">
         <v>118</v>
@@ -14723,13 +14681,13 @@
         <v>32</v>
       </c>
       <c r="G422" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H422" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I422" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J422" t="s">
         <v>116</v>
@@ -14737,7 +14695,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B423" t="s">
         <v>119</v>
@@ -14755,13 +14713,13 @@
         <v>31</v>
       </c>
       <c r="G423" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H423" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I423" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J423" t="s">
         <v>116</v>
@@ -14769,7 +14727,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B424" t="s">
         <v>120</v>
@@ -14787,13 +14745,13 @@
         <v>29</v>
       </c>
       <c r="G424" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H424" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I424" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J424" t="s">
         <v>116</v>
@@ -14801,10 +14759,10 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B425" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C425" t="s">
         <v>26</v>
@@ -14819,7 +14777,7 @@
         <v>22</v>
       </c>
       <c r="G425" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H425" t="s">
         <v>83</v>
@@ -14833,10 +14791,10 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B426" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -14851,7 +14809,7 @@
         <v>25</v>
       </c>
       <c r="G426" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H426" t="s">
         <v>83</v>
@@ -14865,10 +14823,10 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B427" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C427" t="s">
         <v>21</v>
@@ -14883,7 +14841,7 @@
         <v>50</v>
       </c>
       <c r="G427" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H427" t="s">
         <v>83</v>
@@ -14897,7 +14855,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B428" t="s">
         <v>29</v>
@@ -14915,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="G428" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H428" t="s">
         <v>83</v>
@@ -14929,10 +14887,10 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B429" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C429" t="s">
         <v>30</v>
@@ -14947,7 +14905,7 @@
         <v>2</v>
       </c>
       <c r="G429" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H429" t="s">
         <v>83</v>
@@ -14961,10 +14919,10 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B430" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C430" t="s">
         <v>30</v>
@@ -14979,7 +14937,7 @@
         <v>23</v>
       </c>
       <c r="G430" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H430" t="s">
         <v>83</v>
@@ -14993,10 +14951,10 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B431" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -15011,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="G431" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H431" t="s">
         <v>83</v>
@@ -15025,10 +14983,10 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B432" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C432" t="s">
         <v>26</v>
@@ -15043,7 +15001,7 @@
         <v>32</v>
       </c>
       <c r="G432" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H432" t="s">
         <v>83</v>
@@ -15057,10 +15015,10 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B433" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C433" t="s">
         <v>21</v>
@@ -15075,7 +15033,7 @@
         <v>39</v>
       </c>
       <c r="G433" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H433" t="s">
         <v>83</v>
@@ -15089,7 +15047,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B434" t="s">
         <v>29</v>
@@ -15107,7 +15065,7 @@
         <v>2</v>
       </c>
       <c r="G434" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H434" t="s">
         <v>83</v>
@@ -15121,10 +15079,10 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B435" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C435" t="s">
         <v>96</v>
@@ -15139,7 +15097,7 @@
         <v>3</v>
       </c>
       <c r="G435" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H435" t="s">
         <v>83</v>
@@ -15153,16 +15111,16 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B436" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C436" t="s">
         <v>12</v>
       </c>
       <c r="D436" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E436">
         <v>2020</v>
@@ -15171,10 +15129,10 @@
         <v>35</v>
       </c>
       <c r="G436" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H436" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I436" t="s">
         <v>53</v>
@@ -15185,16 +15143,16 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B437" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C437" t="s">
         <v>12</v>
       </c>
       <c r="D437" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E437">
         <v>2020</v>
@@ -15203,10 +15161,10 @@
         <v>22</v>
       </c>
       <c r="G437" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H437" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I437" t="s">
         <v>53</v>
@@ -15217,16 +15175,16 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
+        <v>275</v>
+      </c>
+      <c r="B438" t="s">
         <v>281</v>
       </c>
-      <c r="B438" t="s">
-        <v>287</v>
-      </c>
       <c r="C438" t="s">
         <v>12</v>
       </c>
       <c r="D438" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E438">
         <v>2020</v>
@@ -15235,10 +15193,10 @@
         <v>38</v>
       </c>
       <c r="G438" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H438" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I438" t="s">
         <v>53</v>
@@ -15249,16 +15207,16 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B439" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C439" t="s">
         <v>12</v>
       </c>
       <c r="D439" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E439">
         <v>2020</v>
@@ -15267,10 +15225,10 @@
         <v>5</v>
       </c>
       <c r="G439" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H439" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I439" t="s">
         <v>53</v>
@@ -15281,16 +15239,16 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B440" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C440" t="s">
         <v>12</v>
       </c>
       <c r="D440" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E440">
         <v>2020</v>
@@ -15299,10 +15257,10 @@
         <v>46</v>
       </c>
       <c r="G440" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H440" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I440" t="s">
         <v>53</v>
@@ -15313,16 +15271,16 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B441" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C441" t="s">
         <v>12</v>
       </c>
       <c r="D441" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E441">
         <v>2020</v>
@@ -15331,10 +15289,10 @@
         <v>23</v>
       </c>
       <c r="G441" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H441" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I441" t="s">
         <v>53</v>
@@ -15345,16 +15303,16 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
+        <v>275</v>
+      </c>
+      <c r="B442" t="s">
         <v>281</v>
       </c>
-      <c r="B442" t="s">
-        <v>287</v>
-      </c>
       <c r="C442" t="s">
         <v>12</v>
       </c>
       <c r="D442" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E442">
         <v>2020</v>
@@ -15363,10 +15321,10 @@
         <v>24</v>
       </c>
       <c r="G442" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H442" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I442" t="s">
         <v>53</v>
@@ -15377,16 +15335,16 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B443" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C443" t="s">
         <v>12</v>
       </c>
       <c r="D443" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E443">
         <v>2020</v>
@@ -15395,10 +15353,10 @@
         <v>7</v>
       </c>
       <c r="G443" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H443" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I443" t="s">
         <v>53</v>
@@ -15409,10 +15367,10 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B444" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C444" t="s">
         <v>21</v>
@@ -15421,16 +15379,16 @@
         <v>12</v>
       </c>
       <c r="E444">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F444">
         <v>70</v>
       </c>
       <c r="G444" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H444" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I444" t="s">
         <v>24</v>
@@ -15441,10 +15399,10 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B445" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -15453,16 +15411,16 @@
         <v>12</v>
       </c>
       <c r="E445">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F445">
         <v>61</v>
       </c>
       <c r="G445" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H445" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I445" t="s">
         <v>24</v>
@@ -15473,10 +15431,10 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B446" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C446" t="s">
         <v>26</v>
@@ -15485,16 +15443,16 @@
         <v>12</v>
       </c>
       <c r="E446">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F446">
         <v>81</v>
       </c>
       <c r="G446" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H446" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I446" t="s">
         <v>24</v>
@@ -15505,10 +15463,10 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
+        <v>284</v>
+      </c>
+      <c r="B447" t="s">
         <v>290</v>
-      </c>
-      <c r="B447" t="s">
-        <v>296</v>
       </c>
       <c r="C447" t="s">
         <v>30</v>
@@ -15517,16 +15475,16 @@
         <v>12</v>
       </c>
       <c r="E447">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F447">
         <v>86</v>
       </c>
       <c r="G447" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H447" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I447" t="s">
         <v>24</v>
@@ -15537,10 +15495,10 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B448" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C448" t="s">
         <v>96</v>
@@ -15549,16 +15507,16 @@
         <v>12</v>
       </c>
       <c r="E448">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F448">
         <v>93</v>
       </c>
       <c r="G448" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H448" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I448" t="s">
         <v>24</v>
@@ -15569,10 +15527,10 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B449" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C449" t="s">
         <v>21</v>
@@ -15581,16 +15539,16 @@
         <v>12</v>
       </c>
       <c r="E449">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F449">
         <v>43</v>
       </c>
       <c r="G449" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H449" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I449" t="s">
         <v>24</v>
@@ -15601,10 +15559,10 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B450" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -15613,16 +15571,16 @@
         <v>12</v>
       </c>
       <c r="E450">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F450">
         <v>51</v>
       </c>
       <c r="G450" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H450" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I450" t="s">
         <v>24</v>
@@ -15633,10 +15591,10 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B451" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C451" t="s">
         <v>26</v>
@@ -15645,16 +15603,16 @@
         <v>12</v>
       </c>
       <c r="E451">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F451">
         <v>82</v>
       </c>
       <c r="G451" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H451" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I451" t="s">
         <v>24</v>
@@ -15665,10 +15623,10 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>284</v>
+      </c>
+      <c r="B452" t="s">
         <v>290</v>
-      </c>
-      <c r="B452" t="s">
-        <v>296</v>
       </c>
       <c r="C452" t="s">
         <v>30</v>
@@ -15677,16 +15635,16 @@
         <v>12</v>
       </c>
       <c r="E452">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F452">
         <v>90</v>
       </c>
       <c r="G452" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H452" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I452" t="s">
         <v>24</v>
@@ -15697,10 +15655,10 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B453" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C453" t="s">
         <v>96</v>
@@ -15709,16 +15667,16 @@
         <v>12</v>
       </c>
       <c r="E453">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F453">
         <v>91</v>
       </c>
       <c r="G453" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H453" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I453" t="s">
         <v>24</v>
@@ -15729,10 +15687,10 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B454" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C454" t="s">
         <v>21</v>
@@ -15747,10 +15705,10 @@
         <v>46</v>
       </c>
       <c r="G454" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H454" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I454" t="s">
         <v>24</v>
@@ -15761,10 +15719,10 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B455" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -15779,10 +15737,10 @@
         <v>27</v>
       </c>
       <c r="G455" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H455" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I455" t="s">
         <v>24</v>
@@ -15793,10 +15751,10 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B456" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C456" t="s">
         <v>26</v>
@@ -15811,10 +15769,10 @@
         <v>23</v>
       </c>
       <c r="G456" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H456" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I456" t="s">
         <v>24</v>
@@ -15825,10 +15783,10 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B457" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C457" t="s">
         <v>21</v>
@@ -15843,10 +15801,10 @@
         <v>53</v>
       </c>
       <c r="G457" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H457" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I457" t="s">
         <v>24</v>
@@ -15857,10 +15815,10 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B458" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -15875,10 +15833,10 @@
         <v>23</v>
       </c>
       <c r="G458" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H458" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I458" t="s">
         <v>24</v>
@@ -15889,10 +15847,10 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B459" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C459" t="s">
         <v>26</v>
@@ -15907,10 +15865,10 @@
         <v>22</v>
       </c>
       <c r="G459" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H459" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I459" t="s">
         <v>24</v>
@@ -15921,7 +15879,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B460" t="s">
         <v>39</v>
@@ -15939,10 +15897,10 @@
         <v>23</v>
       </c>
       <c r="G460" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H460" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I460" t="s">
         <v>24</v>
@@ -15953,7 +15911,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B461" t="s">
         <v>224</v>
@@ -15971,10 +15929,10 @@
         <v>17</v>
       </c>
       <c r="G461" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H461" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I461" t="s">
         <v>24</v>
@@ -15985,7 +15943,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B462" t="s">
         <v>41</v>
@@ -16003,10 +15961,10 @@
         <v>52</v>
       </c>
       <c r="G462" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H462" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I462" t="s">
         <v>24</v>
@@ -16017,7 +15975,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B463" t="s">
         <v>39</v>
@@ -16035,10 +15993,10 @@
         <v>43</v>
       </c>
       <c r="G463" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H463" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I463" t="s">
         <v>24</v>
@@ -16049,7 +16007,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B464" t="s">
         <v>224</v>
@@ -16067,10 +16025,10 @@
         <v>19</v>
       </c>
       <c r="G464" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H464" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I464" t="s">
         <v>24</v>
@@ -16081,7 +16039,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B465" t="s">
         <v>41</v>
@@ -16099,10 +16057,10 @@
         <v>31</v>
       </c>
       <c r="G465" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H465" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I465" t="s">
         <v>24</v>
@@ -16113,10 +16071,10 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B466" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C466" t="s">
         <v>12</v>
@@ -16131,10 +16089,10 @@
         <v>31.06</v>
       </c>
       <c r="G466" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H466" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I466" t="s">
         <v>53</v>
@@ -16142,10 +16100,10 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B467" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C467" t="s">
         <v>12</v>
@@ -16160,10 +16118,10 @@
         <v>67.28</v>
       </c>
       <c r="G467" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H467" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I467" t="s">
         <v>53</v>
@@ -16171,10 +16129,10 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B468" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C468" t="s">
         <v>12</v>
@@ -16189,10 +16147,10 @@
         <v>61.21</v>
       </c>
       <c r="G468" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H468" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I468" t="s">
         <v>53</v>
@@ -16200,10 +16158,10 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
+        <v>300</v>
+      </c>
+      <c r="B469" t="s">
         <v>306</v>
-      </c>
-      <c r="B469" t="s">
-        <v>312</v>
       </c>
       <c r="C469" t="s">
         <v>12</v>
@@ -16218,10 +16176,10 @@
         <v>34.29</v>
       </c>
       <c r="G469" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H469" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I469" t="s">
         <v>53</v>
@@ -16229,10 +16187,10 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B470" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C470" t="s">
         <v>12</v>
@@ -16247,10 +16205,10 @@
         <v>65.81</v>
       </c>
       <c r="G470" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H470" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I470" t="s">
         <v>53</v>
@@ -16258,10 +16216,10 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B471" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C471" t="s">
         <v>12</v>
@@ -16276,10 +16234,10 @@
         <v>76.150000000000006</v>
       </c>
       <c r="G471" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H471" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I471" t="s">
         <v>53</v>
@@ -16287,10 +16245,10 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B472" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C472" t="s">
         <v>12</v>
@@ -16305,10 +16263,10 @@
         <v>40.14</v>
       </c>
       <c r="G472" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H472" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I472" t="s">
         <v>53</v>
@@ -16316,10 +16274,10 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B473" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C473" t="s">
         <v>12</v>
@@ -16334,10 +16292,10 @@
         <v>39.14</v>
       </c>
       <c r="G473" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H473" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I473" t="s">
         <v>53</v>
@@ -16345,10 +16303,10 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B474" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C474" t="s">
         <v>12</v>
@@ -16363,10 +16321,10 @@
         <v>25.15</v>
       </c>
       <c r="G474" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H474" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I474" t="s">
         <v>53</v>
@@ -16374,10 +16332,10 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B475" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C475" t="s">
         <v>12</v>
@@ -16392,10 +16350,10 @@
         <v>45.39</v>
       </c>
       <c r="G475" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H475" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I475" t="s">
         <v>53</v>
@@ -16403,7 +16361,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B476" t="s">
         <v>66</v>
@@ -16421,10 +16379,10 @@
         <v>59.37</v>
       </c>
       <c r="G476" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H476" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I476" t="s">
         <v>53</v>
@@ -16432,10 +16390,10 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B477" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C477" t="s">
         <v>12</v>
@@ -16450,10 +16408,10 @@
         <v>73.58</v>
       </c>
       <c r="G477" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H477" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I477" t="s">
         <v>53</v>
@@ -16461,10 +16419,10 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B478" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C478" t="s">
         <v>12</v>
@@ -16479,10 +16437,10 @@
         <v>57.2</v>
       </c>
       <c r="G478" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H478" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I478" t="s">
         <v>53</v>
@@ -16490,10 +16448,10 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B479" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C479" t="s">
         <v>12</v>
@@ -16508,10 +16466,10 @@
         <v>18.93</v>
       </c>
       <c r="G479" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H479" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I479" t="s">
         <v>53</v>
@@ -16519,10 +16477,10 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B480" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C480" t="s">
         <v>12</v>
@@ -16537,10 +16495,10 @@
         <v>50.01</v>
       </c>
       <c r="G480" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H480" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I480" t="s">
         <v>53</v>
@@ -16548,10 +16506,10 @@
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B481" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C481" t="s">
         <v>12</v>
@@ -16566,10 +16524,10 @@
         <v>69.680000000000007</v>
       </c>
       <c r="G481" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H481" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I481" t="s">
         <v>53</v>
@@ -16577,10 +16535,10 @@
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B482" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C482" t="s">
         <v>12</v>
@@ -16595,10 +16553,10 @@
         <v>24.82</v>
       </c>
       <c r="G482" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H482" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I482" t="s">
         <v>53</v>
@@ -16606,10 +16564,10 @@
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B483" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C483" t="s">
         <v>12</v>
@@ -16624,10 +16582,10 @@
         <v>23.38</v>
       </c>
       <c r="G483" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H483" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I483" t="s">
         <v>53</v>
@@ -16635,10 +16593,10 @@
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B484" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C484" t="s">
         <v>12</v>
@@ -16653,10 +16611,10 @@
         <v>55.5</v>
       </c>
       <c r="G484" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H484" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I484" t="s">
         <v>53</v>
@@ -16664,10 +16622,10 @@
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B485" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C485" t="s">
         <v>12</v>
@@ -16682,10 +16640,10 @@
         <v>24.89</v>
       </c>
       <c r="G485" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H485" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I485" t="s">
         <v>53</v>
@@ -16693,16 +16651,16 @@
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B486" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C486" t="s">
         <v>21</v>
       </c>
       <c r="D486" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E486">
         <v>2019</v>
@@ -16711,7 +16669,7 @@
         <v>64</v>
       </c>
       <c r="G486" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I486" t="s">
         <v>24</v>
@@ -16719,16 +16677,16 @@
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B487" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C487" t="s">
         <v>21</v>
       </c>
       <c r="D487" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E487">
         <v>2019</v>
@@ -16737,7 +16695,7 @@
         <v>22</v>
       </c>
       <c r="G487" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I487" t="s">
         <v>24</v>
@@ -16745,16 +16703,16 @@
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B488" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
       </c>
       <c r="D488" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E488">
         <v>2019</v>
@@ -16763,7 +16721,7 @@
         <v>25</v>
       </c>
       <c r="G488" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I488" t="s">
         <v>24</v>
@@ -16771,16 +16729,16 @@
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B489" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
       </c>
       <c r="D489" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E489">
         <v>2019</v>
@@ -16789,7 +16747,7 @@
         <v>55</v>
       </c>
       <c r="G489" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I489" t="s">
         <v>24</v>
@@ -16797,16 +16755,16 @@
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B490" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C490" t="s">
         <v>26</v>
       </c>
       <c r="D490" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E490">
         <v>2019</v>
@@ -16815,7 +16773,7 @@
         <v>32</v>
       </c>
       <c r="G490" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I490" t="s">
         <v>24</v>
@@ -16823,16 +16781,16 @@
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B491" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C491" t="s">
         <v>26</v>
       </c>
       <c r="D491" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E491">
         <v>2019</v>
@@ -16841,7 +16799,7 @@
         <v>49</v>
       </c>
       <c r="G491" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I491" t="s">
         <v>24</v>
@@ -16849,16 +16807,16 @@
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B492" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C492" t="s">
         <v>21</v>
       </c>
       <c r="D492" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E492">
         <v>2020</v>
@@ -16867,7 +16825,7 @@
         <v>50</v>
       </c>
       <c r="G492" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I492" t="s">
         <v>24</v>
@@ -16875,16 +16833,16 @@
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B493" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C493" t="s">
         <v>21</v>
       </c>
       <c r="D493" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E493">
         <v>2020</v>
@@ -16893,7 +16851,7 @@
         <v>38</v>
       </c>
       <c r="G493" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I493" t="s">
         <v>24</v>
@@ -16901,16 +16859,16 @@
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B494" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
       </c>
       <c r="D494" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E494">
         <v>2020</v>
@@ -16919,7 +16877,7 @@
         <v>26</v>
       </c>
       <c r="G494" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I494" t="s">
         <v>24</v>
@@ -16927,16 +16885,16 @@
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B495" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
       </c>
       <c r="D495" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E495">
         <v>2020</v>
@@ -16945,7 +16903,7 @@
         <v>57</v>
       </c>
       <c r="G495" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I495" t="s">
         <v>24</v>
@@ -16953,16 +16911,16 @@
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B496" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C496" t="s">
         <v>26</v>
       </c>
       <c r="D496" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E496">
         <v>2020</v>
@@ -16971,7 +16929,7 @@
         <v>25</v>
       </c>
       <c r="G496" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I496" t="s">
         <v>24</v>
@@ -16979,16 +16937,16 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B497" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C497" t="s">
         <v>26</v>
       </c>
       <c r="D497" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E497">
         <v>2020</v>
@@ -16997,7 +16955,7 @@
         <v>61</v>
       </c>
       <c r="G497" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I497" t="s">
         <v>24</v>
@@ -17005,10 +16963,10 @@
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B498" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C498" t="s">
         <v>21</v>
@@ -17023,7 +16981,7 @@
         <v>39.139813260752298</v>
       </c>
       <c r="G498" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I498" t="s">
         <v>53</v>
@@ -17034,7 +16992,7 @@
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B499" t="s">
         <v>135</v>
@@ -17052,7 +17010,7 @@
         <v>30.138908282333901</v>
       </c>
       <c r="G499" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I499" t="s">
         <v>53</v>
@@ -17063,7 +17021,7 @@
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B500" t="s">
         <v>136</v>
@@ -17081,7 +17039,7 @@
         <v>16.116652582796799</v>
       </c>
       <c r="G500" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I500" t="s">
         <v>53</v>
@@ -17092,7 +17050,7 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B501" t="s">
         <v>137</v>
@@ -17110,7 +17068,7 @@
         <v>4.9957326784850604</v>
       </c>
       <c r="G501" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I501" t="s">
         <v>53</v>
@@ -17121,7 +17079,7 @@
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B502" t="s">
         <v>29</v>
@@ -17139,7 +17097,7 @@
         <v>9.6088931956319001</v>
       </c>
       <c r="G502" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I502" t="s">
         <v>53</v>
@@ -17150,10 +17108,10 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B503" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C503" t="s">
         <v>21</v>
@@ -17168,7 +17126,7 @@
         <v>24.888840214308399</v>
       </c>
       <c r="G503" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I503" t="s">
         <v>53</v>
@@ -17179,7 +17137,7 @@
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B504" t="s">
         <v>135</v>
@@ -17197,7 +17155,7 @@
         <v>23.060491267488899</v>
       </c>
       <c r="G504" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I504" t="s">
         <v>53</v>
@@ -17208,7 +17166,7 @@
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B505" t="s">
         <v>136</v>
@@ -17226,7 +17184,7 @@
         <v>20.0473113371728</v>
       </c>
       <c r="G505" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I505" t="s">
         <v>53</v>
@@ -17237,7 +17195,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B506" t="s">
         <v>137</v>
@@ -17255,7 +17213,7 @@
         <v>8.6110595078510208</v>
       </c>
       <c r="G506" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I506" t="s">
         <v>53</v>
@@ -17266,7 +17224,7 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B507" t="s">
         <v>29</v>
@@ -17284,7 +17242,7 @@
         <v>23.392297673178799</v>
       </c>
       <c r="G507" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I507" t="s">
         <v>53</v>
@@ -17295,10 +17253,10 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B508" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C508" t="s">
         <v>21</v>
@@ -17313,7 +17271,7 @@
         <v>34.294644476385201</v>
       </c>
       <c r="G508" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I508" t="s">
         <v>53</v>
@@ -17324,7 +17282,7 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B509" t="s">
         <v>135</v>
@@ -17342,7 +17300,7 @@
         <v>27.907040453592099</v>
       </c>
       <c r="G509" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I509" t="s">
         <v>53</v>
@@ -17353,7 +17311,7 @@
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B510" t="s">
         <v>136</v>
@@ -17371,7 +17329,7 @@
         <v>17.5774814917052</v>
       </c>
       <c r="G510" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I510" t="s">
         <v>53</v>
@@ -17382,7 +17340,7 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B511" t="s">
         <v>137</v>
@@ -17400,7 +17358,7 @@
         <v>5.2449085600062499</v>
       </c>
       <c r="G511" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I511" t="s">
         <v>53</v>
@@ -17411,7 +17369,7 @@
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B512" t="s">
         <v>29</v>
@@ -17429,7 +17387,7 @@
         <v>14.9759250183112</v>
       </c>
       <c r="G512" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I512" t="s">
         <v>53</v>
@@ -17440,10 +17398,10 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B513" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C513" t="s">
         <v>21</v>
@@ -17458,7 +17416,7 @@
         <v>12</v>
       </c>
       <c r="G513" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H513" t="s">
         <v>83</v>
@@ -17472,10 +17430,10 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B514" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -17490,7 +17448,7 @@
         <v>12</v>
       </c>
       <c r="G514" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H514" t="s">
         <v>83</v>
@@ -17504,10 +17462,10 @@
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B515" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C515" t="s">
         <v>26</v>
@@ -17522,7 +17480,7 @@
         <v>13</v>
       </c>
       <c r="G515" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H515" t="s">
         <v>83</v>
@@ -17536,10 +17494,10 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B516" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C516" t="s">
         <v>30</v>
@@ -17554,7 +17512,7 @@
         <v>19</v>
       </c>
       <c r="G516" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H516" t="s">
         <v>83</v>
@@ -17568,7 +17526,7 @@
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B517" t="s">
         <v>32</v>
@@ -17583,10 +17541,10 @@
         <v>48</v>
       </c>
       <c r="G517" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H517" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I517" t="s">
         <v>24</v>
@@ -17597,7 +17555,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B518" t="s">
         <v>37</v>
@@ -17612,10 +17570,10 @@
         <v>16</v>
       </c>
       <c r="G518" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H518" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I518" t="s">
         <v>24</v>
@@ -17626,10 +17584,10 @@
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B519" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C519" t="s">
         <v>26</v>
@@ -17641,10 +17599,10 @@
         <v>28</v>
       </c>
       <c r="G519" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H519" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I519" t="s">
         <v>24</v>
@@ -17655,7 +17613,7 @@
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B520" t="s">
         <v>29</v>
@@ -17670,10 +17628,10 @@
         <v>8</v>
       </c>
       <c r="G520" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H520" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I520" t="s">
         <v>24</v>
@@ -17684,7 +17642,7 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B521" t="s">
         <v>32</v>
@@ -17699,10 +17657,10 @@
         <v>40</v>
       </c>
       <c r="G521" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H521" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I521" t="s">
         <v>24</v>
@@ -17713,7 +17671,7 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B522" t="s">
         <v>37</v>
@@ -17728,10 +17686,10 @@
         <v>33</v>
       </c>
       <c r="G522" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H522" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I522" t="s">
         <v>24</v>
@@ -17742,10 +17700,10 @@
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B523" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C523" t="s">
         <v>26</v>
@@ -17757,10 +17715,10 @@
         <v>15</v>
       </c>
       <c r="G523" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H523" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I523" t="s">
         <v>24</v>
@@ -17771,7 +17729,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B524" t="s">
         <v>29</v>
@@ -17786,10 +17744,10 @@
         <v>11</v>
       </c>
       <c r="G524" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H524" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I524" t="s">
         <v>24</v>
@@ -17800,10 +17758,10 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B525" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C525" t="s">
         <v>21</v>
@@ -17818,7 +17776,7 @@
         <v>46</v>
       </c>
       <c r="G525" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H525" t="s">
         <v>83</v>
@@ -17832,10 +17790,10 @@
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B526" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -17850,7 +17808,7 @@
         <v>45</v>
       </c>
       <c r="G526" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H526" t="s">
         <v>83</v>
@@ -17864,10 +17822,10 @@
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B527" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C527" t="s">
         <v>26</v>
@@ -17882,7 +17840,7 @@
         <v>60</v>
       </c>
       <c r="G527" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H527" t="s">
         <v>83</v>
@@ -17896,10 +17854,10 @@
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B528" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -17911,7 +17869,7 @@
         <v>62.13</v>
       </c>
       <c r="G528" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H528" t="s">
         <v>83</v>
@@ -17925,10 +17883,10 @@
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B529" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C529" t="s">
         <v>21</v>
@@ -17940,7 +17898,7 @@
         <v>32.93</v>
       </c>
       <c r="G529" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H529" t="s">
         <v>83</v>
@@ -17954,7 +17912,7 @@
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B530" t="s">
         <v>29</v>
@@ -17969,7 +17927,7 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="G530" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H530" t="s">
         <v>83</v>
@@ -17983,10 +17941,10 @@
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B531" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -17998,7 +17956,7 @@
         <v>61.35</v>
       </c>
       <c r="G531" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H531" t="s">
         <v>83</v>
@@ -18012,10 +17970,10 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B532" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C532" t="s">
         <v>21</v>
@@ -18027,7 +17985,7 @@
         <v>33.520000000000003</v>
       </c>
       <c r="G532" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H532" t="s">
         <v>83</v>
@@ -18041,7 +17999,7 @@
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B533" t="s">
         <v>29</v>
@@ -18056,7 +18014,7 @@
         <v>5.13</v>
       </c>
       <c r="G533" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H533" t="s">
         <v>83</v>
@@ -18070,10 +18028,10 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B534" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C534" t="s">
         <v>21</v>
@@ -18085,7 +18043,7 @@
         <v>51</v>
       </c>
       <c r="G534" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H534" t="s">
         <v>83</v>
@@ -18099,10 +18057,10 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B535" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C535" t="s">
         <v>28</v>
@@ -18114,7 +18072,7 @@
         <v>16</v>
       </c>
       <c r="G535" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H535" t="s">
         <v>83</v>
@@ -18128,10 +18086,10 @@
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B536" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C536" t="s">
         <v>26</v>
@@ -18143,7 +18101,7 @@
         <v>12</v>
       </c>
       <c r="G536" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H536" t="s">
         <v>83</v>
@@ -18157,10 +18115,10 @@
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B537" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C537" t="s">
         <v>30</v>
@@ -18172,7 +18130,7 @@
         <v>2</v>
       </c>
       <c r="G537" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H537" t="s">
         <v>83</v>
@@ -18186,10 +18144,10 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
+        <v>347</v>
+      </c>
+      <c r="B538" t="s">
         <v>353</v>
-      </c>
-      <c r="B538" t="s">
-        <v>359</v>
       </c>
       <c r="C538" t="s">
         <v>96</v>
@@ -18201,7 +18159,7 @@
         <v>2</v>
       </c>
       <c r="G538" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H538" t="s">
         <v>83</v>
@@ -18215,10 +18173,10 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B539" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C539" t="s">
         <v>98</v>
@@ -18230,7 +18188,7 @@
         <v>1</v>
       </c>
       <c r="G539" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H539" t="s">
         <v>83</v>
@@ -18244,13 +18202,13 @@
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B540" t="s">
         <v>29</v>
       </c>
       <c r="C540" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E540">
         <v>2020</v>
@@ -18259,7 +18217,7 @@
         <v>16</v>
       </c>
       <c r="G540" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H540" t="s">
         <v>83</v>
@@ -18273,16 +18231,16 @@
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B541" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C541" t="s">
         <v>21</v>
       </c>
       <c r="D541" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E541">
         <v>2020</v>
@@ -18291,7 +18249,7 @@
         <v>78</v>
       </c>
       <c r="G541" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I541" t="s">
         <v>53</v>
@@ -18302,16 +18260,16 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B542" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
       </c>
       <c r="D542" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E542">
         <v>2020</v>
@@ -18320,7 +18278,7 @@
         <v>20</v>
       </c>
       <c r="G542" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I542" t="s">
         <v>53</v>
@@ -18331,7 +18289,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B543" t="s">
         <v>29</v>
@@ -18340,7 +18298,7 @@
         <v>26</v>
       </c>
       <c r="D543" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E543">
         <v>2020</v>
@@ -18349,7 +18307,7 @@
         <v>2</v>
       </c>
       <c r="G543" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I543" t="s">
         <v>53</v>
@@ -18360,16 +18318,16 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B544" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C544" t="s">
         <v>21</v>
       </c>
       <c r="D544" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E544">
         <v>2020</v>
@@ -18378,7 +18336,7 @@
         <v>74</v>
       </c>
       <c r="G544" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I544" t="s">
         <v>53</v>
@@ -18389,16 +18347,16 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B545" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
       </c>
       <c r="D545" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E545">
         <v>2020</v>
@@ -18407,7 +18365,7 @@
         <v>24</v>
       </c>
       <c r="G545" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I545" t="s">
         <v>53</v>
@@ -18418,7 +18376,7 @@
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B546" t="s">
         <v>29</v>
@@ -18427,7 +18385,7 @@
         <v>26</v>
       </c>
       <c r="D546" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E546">
         <v>2020</v>
@@ -18436,7 +18394,7 @@
         <v>2</v>
       </c>
       <c r="G546" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I546" t="s">
         <v>53</v>
@@ -18447,10 +18405,10 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B547" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C547" t="s">
         <v>21</v>
@@ -18465,7 +18423,7 @@
         <v>66.739999999999995</v>
       </c>
       <c r="G547" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H547" t="s">
         <v>83</v>
@@ -18479,7 +18437,7 @@
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B548" t="s">
         <v>128</v>
@@ -18497,7 +18455,7 @@
         <v>28.49</v>
       </c>
       <c r="G548" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H548" t="s">
         <v>83</v>
@@ -18511,7 +18469,7 @@
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B549" t="s">
         <v>29</v>
@@ -18529,7 +18487,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="G549" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H549" t="s">
         <v>83</v>
@@ -18543,7 +18501,7 @@
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B550" t="s">
         <v>128</v>
@@ -18558,7 +18516,7 @@
         <v>95.64</v>
       </c>
       <c r="G550" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H550" t="s">
         <v>83</v>
@@ -18572,10 +18530,10 @@
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B551" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C551" t="s">
         <v>28</v>
@@ -18587,7 +18545,7 @@
         <v>3.59</v>
       </c>
       <c r="G551" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H551" t="s">
         <v>83</v>
@@ -18601,10 +18559,10 @@
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B552" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C552" t="s">
         <v>21</v>
@@ -18616,7 +18574,7 @@
         <v>0.77</v>
       </c>
       <c r="G552" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H552" t="s">
         <v>83</v>
@@ -18630,10 +18588,10 @@
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B553" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -18645,10 +18603,10 @@
         <v>48.26</v>
       </c>
       <c r="G553" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H553" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I553" t="s">
         <v>146</v>
@@ -18659,10 +18617,10 @@
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B554" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -18674,10 +18632,10 @@
         <v>48.84</v>
       </c>
       <c r="G554" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H554" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I554" t="s">
         <v>146</v>
@@ -18688,7 +18646,7 @@
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B555" t="s">
         <v>36</v>
@@ -18703,10 +18661,10 @@
         <v>16.190000000000001</v>
       </c>
       <c r="G555" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H555" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I555" t="s">
         <v>146</v>
@@ -18717,7 +18675,7 @@
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B556" t="s">
         <v>36</v>
@@ -18732,10 +18690,10 @@
         <v>15.13</v>
       </c>
       <c r="G556" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H556" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I556" t="s">
         <v>146</v>
@@ -18746,10 +18704,10 @@
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B557" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C557" t="s">
         <v>21</v>
@@ -18761,10 +18719,10 @@
         <v>20.47</v>
       </c>
       <c r="G557" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H557" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I557" t="s">
         <v>146</v>
@@ -18775,10 +18733,10 @@
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B558" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C558" t="s">
         <v>21</v>
@@ -18790,10 +18748,10 @@
         <v>21.81</v>
       </c>
       <c r="G558" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H558" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I558" t="s">
         <v>146</v>
@@ -18804,10 +18762,10 @@
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
+        <v>368</v>
+      </c>
+      <c r="B559" t="s">
         <v>374</v>
-      </c>
-      <c r="B559" t="s">
-        <v>380</v>
       </c>
       <c r="C559" t="s">
         <v>30</v>
@@ -18819,10 +18777,10 @@
         <v>5.93</v>
       </c>
       <c r="G559" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H559" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I559" t="s">
         <v>146</v>
@@ -18833,10 +18791,10 @@
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
+        <v>368</v>
+      </c>
+      <c r="B560" t="s">
         <v>374</v>
-      </c>
-      <c r="B560" t="s">
-        <v>380</v>
       </c>
       <c r="C560" t="s">
         <v>30</v>
@@ -18848,10 +18806,10 @@
         <v>6</v>
       </c>
       <c r="G560" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H560" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I560" t="s">
         <v>146</v>
@@ -18862,10 +18820,10 @@
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B561" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C561" t="s">
         <v>96</v>
@@ -18877,10 +18835,10 @@
         <v>6.87</v>
       </c>
       <c r="G561" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H561" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I561" t="s">
         <v>146</v>
@@ -18891,10 +18849,10 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B562" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C562" t="s">
         <v>96</v>
@@ -18906,10 +18864,10 @@
         <v>5.21</v>
       </c>
       <c r="G562" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H562" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I562" t="s">
         <v>146</v>
@@ -18920,7 +18878,7 @@
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B563" t="s">
         <v>29</v>
@@ -18935,10 +18893,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="G563" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H563" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I563" t="s">
         <v>146</v>
@@ -18949,7 +18907,7 @@
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B564" t="s">
         <v>29</v>
@@ -18964,10 +18922,10 @@
         <v>3.01</v>
       </c>
       <c r="G564" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H564" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I564" t="s">
         <v>146</v>
@@ -18978,10 +18936,10 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B565" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C565" t="s">
         <v>28</v>
@@ -18993,10 +18951,10 @@
         <v>34.630000000000003</v>
       </c>
       <c r="G565" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H565" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I565" t="s">
         <v>146</v>
@@ -19007,10 +18965,10 @@
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B566" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C566" t="s">
         <v>28</v>
@@ -19022,10 +18980,10 @@
         <v>35.21</v>
       </c>
       <c r="G566" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H566" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I566" t="s">
         <v>146</v>
@@ -19036,7 +18994,7 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B567" t="s">
         <v>36</v>
@@ -19051,10 +19009,10 @@
         <v>29.25</v>
       </c>
       <c r="G567" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H567" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I567" t="s">
         <v>146</v>
@@ -19065,7 +19023,7 @@
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B568" t="s">
         <v>36</v>
@@ -19080,10 +19038,10 @@
         <v>29.06</v>
       </c>
       <c r="G568" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H568" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I568" t="s">
         <v>146</v>
@@ -19094,10 +19052,10 @@
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B569" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C569" t="s">
         <v>21</v>
@@ -19109,10 +19067,10 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="G569" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H569" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I569" t="s">
         <v>146</v>
@@ -19123,10 +19081,10 @@
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B570" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C570" t="s">
         <v>21</v>
@@ -19138,10 +19096,10 @@
         <v>6.12</v>
       </c>
       <c r="G570" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H570" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I570" t="s">
         <v>146</v>
@@ -19152,10 +19110,10 @@
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
+        <v>368</v>
+      </c>
+      <c r="B571" t="s">
         <v>374</v>
-      </c>
-      <c r="B571" t="s">
-        <v>380</v>
       </c>
       <c r="C571" t="s">
         <v>30</v>
@@ -19167,10 +19125,10 @@
         <v>17.59</v>
       </c>
       <c r="G571" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H571" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I571" t="s">
         <v>146</v>
@@ -19181,10 +19139,10 @@
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
+        <v>368</v>
+      </c>
+      <c r="B572" t="s">
         <v>374</v>
-      </c>
-      <c r="B572" t="s">
-        <v>380</v>
       </c>
       <c r="C572" t="s">
         <v>30</v>
@@ -19196,10 +19154,10 @@
         <v>20.2</v>
       </c>
       <c r="G572" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H572" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I572" t="s">
         <v>146</v>
@@ -19210,10 +19168,10 @@
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B573" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C573" t="s">
         <v>96</v>
@@ -19225,10 +19183,10 @@
         <v>6.18</v>
       </c>
       <c r="G573" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H573" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I573" t="s">
         <v>146</v>
@@ -19239,10 +19197,10 @@
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B574" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C574" t="s">
         <v>96</v>
@@ -19254,10 +19212,10 @@
         <v>8.26</v>
       </c>
       <c r="G574" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H574" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I574" t="s">
         <v>146</v>
@@ -19268,7 +19226,7 @@
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B575" t="s">
         <v>29</v>
@@ -19283,10 +19241,10 @@
         <v>2.37</v>
       </c>
       <c r="G575" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H575" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I575" t="s">
         <v>146</v>
@@ -19297,7 +19255,7 @@
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B576" t="s">
         <v>29</v>
@@ -19312,10 +19270,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G576" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H576" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I576" t="s">
         <v>146</v>
@@ -19326,7 +19284,7 @@
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B577" t="s">
         <v>191</v>
@@ -19335,7 +19293,7 @@
         <v>21</v>
       </c>
       <c r="D577" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E577">
         <v>2020</v>
@@ -19344,7 +19302,7 @@
         <v>66.069999999999993</v>
       </c>
       <c r="G577" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I577" t="s">
         <v>53</v>
@@ -19355,7 +19313,7 @@
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B578" t="s">
         <v>194</v>
@@ -19364,7 +19322,7 @@
         <v>28</v>
       </c>
       <c r="D578" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E578">
         <v>2020</v>
@@ -19373,7 +19331,7 @@
         <v>30.27</v>
       </c>
       <c r="G578" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I578" t="s">
         <v>53</v>
@@ -19384,7 +19342,7 @@
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B579" t="s">
         <v>191</v>
@@ -19393,7 +19351,7 @@
         <v>21</v>
       </c>
       <c r="D579" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E579">
         <v>2020</v>
@@ -19402,7 +19360,7 @@
         <v>51.96</v>
       </c>
       <c r="G579" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I579" t="s">
         <v>53</v>
@@ -19413,7 +19371,7 @@
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B580" t="s">
         <v>194</v>
@@ -19422,7 +19380,7 @@
         <v>28</v>
       </c>
       <c r="D580" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E580">
         <v>2020</v>
@@ -19431,7 +19389,7 @@
         <v>44.32</v>
       </c>
       <c r="G580" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I580" t="s">
         <v>53</v>
@@ -19442,7 +19400,7 @@
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B581" t="s">
         <v>191</v>
@@ -19451,7 +19409,7 @@
         <v>21</v>
       </c>
       <c r="D581" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E581">
         <v>2020</v>
@@ -19460,7 +19418,7 @@
         <v>59</v>
       </c>
       <c r="G581" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I581" t="s">
         <v>53</v>
@@ -19471,7 +19429,7 @@
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B582" t="s">
         <v>194</v>
@@ -19480,7 +19438,7 @@
         <v>28</v>
       </c>
       <c r="D582" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E582">
         <v>2020</v>
@@ -19489,7 +19447,7 @@
         <v>37</v>
       </c>
       <c r="G582" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I582" t="s">
         <v>53</v>
@@ -19500,7 +19458,7 @@
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B583" t="s">
         <v>191</v>
@@ -19509,7 +19467,7 @@
         <v>21</v>
       </c>
       <c r="D583" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E583">
         <v>2020</v>
@@ -19518,7 +19476,7 @@
         <v>68.25</v>
       </c>
       <c r="G583" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I583" t="s">
         <v>53</v>
@@ -19529,7 +19487,7 @@
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B584" t="s">
         <v>194</v>
@@ -19538,7 +19496,7 @@
         <v>28</v>
       </c>
       <c r="D584" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E584">
         <v>2020</v>
@@ -19547,7 +19505,7 @@
         <v>31.75</v>
       </c>
       <c r="G584" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I584" t="s">
         <v>53</v>
@@ -19558,16 +19516,16 @@
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B585" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C585" t="s">
         <v>21</v>
       </c>
       <c r="D585" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E585">
         <v>2020</v>
@@ -19576,7 +19534,7 @@
         <v>76.3</v>
       </c>
       <c r="G585" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I585" t="s">
         <v>53</v>
@@ -19587,16 +19545,16 @@
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B586" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C586" t="s">
         <v>21</v>
       </c>
       <c r="D586" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E586">
         <v>2020</v>
@@ -19605,7 +19563,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="G586" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I586" t="s">
         <v>53</v>
@@ -19616,16 +19574,16 @@
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B587" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
       </c>
       <c r="D587" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E587">
         <v>2020</v>
@@ -19634,7 +19592,7 @@
         <v>75.12</v>
       </c>
       <c r="G587" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I587" t="s">
         <v>53</v>
@@ -19645,16 +19603,16 @@
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B588" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
       </c>
       <c r="D588" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E588">
         <v>2020</v>
@@ -19663,7 +19621,7 @@
         <v>65.39</v>
       </c>
       <c r="G588" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I588" t="s">
         <v>53</v>
@@ -19674,16 +19632,16 @@
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B589" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C589" t="s">
         <v>26</v>
       </c>
       <c r="D589" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E589">
         <v>2020</v>
@@ -19692,7 +19650,7 @@
         <v>74.400000000000006</v>
       </c>
       <c r="G589" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I589" t="s">
         <v>53</v>
@@ -19703,16 +19661,16 @@
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B590" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C590" t="s">
         <v>26</v>
       </c>
       <c r="D590" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E590">
         <v>2020</v>
@@ -19721,7 +19679,7 @@
         <v>64.92</v>
       </c>
       <c r="G590" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I590" t="s">
         <v>53</v>
@@ -19732,16 +19690,16 @@
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B591" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C591" t="s">
         <v>30</v>
       </c>
       <c r="D591" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E591">
         <v>2020</v>
@@ -19750,7 +19708,7 @@
         <v>69.42</v>
       </c>
       <c r="G591" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I591" t="s">
         <v>53</v>
@@ -19761,16 +19719,16 @@
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B592" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C592" t="s">
         <v>30</v>
       </c>
       <c r="D592" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E592">
         <v>2020</v>
@@ -19779,7 +19737,7 @@
         <v>62.53</v>
       </c>
       <c r="G592" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I592" t="s">
         <v>53</v>
@@ -19790,16 +19748,16 @@
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B593" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C593" t="s">
         <v>96</v>
       </c>
       <c r="D593" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E593">
         <v>2020</v>
@@ -19808,7 +19766,7 @@
         <v>56.72</v>
       </c>
       <c r="G593" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I593" t="s">
         <v>53</v>
@@ -19819,16 +19777,16 @@
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B594" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C594" t="s">
         <v>96</v>
       </c>
       <c r="D594" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E594">
         <v>2020</v>
@@ -19837,7 +19795,7 @@
         <v>64.349999999999994</v>
       </c>
       <c r="G594" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I594" t="s">
         <v>53</v>
@@ -19848,16 +19806,16 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B595" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C595" t="s">
         <v>98</v>
       </c>
       <c r="D595" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E595">
         <v>2020</v>
@@ -19866,7 +19824,7 @@
         <v>54.39</v>
       </c>
       <c r="G595" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I595" t="s">
         <v>53</v>
@@ -19877,16 +19835,16 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B596" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C596" t="s">
         <v>98</v>
       </c>
       <c r="D596" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E596">
         <v>2020</v>
@@ -19895,7 +19853,7 @@
         <v>65.8</v>
       </c>
       <c r="G596" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I596" t="s">
         <v>53</v>
@@ -19906,16 +19864,16 @@
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B597" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C597" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D597" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E597">
         <v>2020</v>
@@ -19924,7 +19882,7 @@
         <v>51.45</v>
       </c>
       <c r="G597" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I597" t="s">
         <v>53</v>
@@ -19935,16 +19893,16 @@
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B598" t="s">
+        <v>387</v>
+      </c>
+      <c r="C598" t="s">
+        <v>250</v>
+      </c>
+      <c r="D598" t="s">
         <v>393</v>
-      </c>
-      <c r="C598" t="s">
-        <v>256</v>
-      </c>
-      <c r="D598" t="s">
-        <v>399</v>
       </c>
       <c r="E598">
         <v>2020</v>
@@ -19953,7 +19911,7 @@
         <v>66.58</v>
       </c>
       <c r="G598" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I598" t="s">
         <v>53</v>
@@ -19964,16 +19922,16 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B599" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C599" t="s">
         <v>21</v>
       </c>
       <c r="D599" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E599">
         <v>2020</v>
@@ -19982,7 +19940,7 @@
         <v>65.09</v>
       </c>
       <c r="G599" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I599" t="s">
         <v>53</v>
@@ -19993,16 +19951,16 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B600" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
       </c>
       <c r="D600" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E600">
         <v>2020</v>
@@ -20011,7 +19969,7 @@
         <v>25.08</v>
       </c>
       <c r="G600" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I600" t="s">
         <v>53</v>
@@ -20022,16 +19980,16 @@
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B601" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C601" t="s">
         <v>21</v>
       </c>
       <c r="D601" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E601">
         <v>2020</v>
@@ -20040,7 +19998,7 @@
         <v>49.61</v>
       </c>
       <c r="G601" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I601" t="s">
         <v>53</v>
@@ -20051,16 +20009,16 @@
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B602" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
       </c>
       <c r="D602" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E602">
         <v>2020</v>
@@ -20069,7 +20027,7 @@
         <v>41.2</v>
       </c>
       <c r="G602" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I602" t="s">
         <v>53</v>
@@ -20080,10 +20038,10 @@
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B603" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C603" t="s">
         <v>21</v>
@@ -20095,10 +20053,10 @@
         <v>68.61</v>
       </c>
       <c r="G603" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H603" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I603" t="s">
         <v>53</v>
@@ -20109,10 +20067,10 @@
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B604" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -20124,10 +20082,10 @@
         <v>24.19</v>
       </c>
       <c r="G604" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H604" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I604" t="s">
         <v>53</v>
@@ -20138,7 +20096,7 @@
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B605" t="s">
         <v>29</v>
@@ -20153,10 +20111,10 @@
         <v>7.2</v>
       </c>
       <c r="G605" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H605" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I605" t="s">
         <v>53</v>
@@ -20167,10 +20125,10 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B606" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C606" t="s">
         <v>21</v>
@@ -20182,7 +20140,7 @@
         <v>11.8</v>
       </c>
       <c r="G606" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H606" t="s">
         <v>83</v>
@@ -20196,10 +20154,10 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B607" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -20211,7 +20169,7 @@
         <v>14.9</v>
       </c>
       <c r="G607" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H607" t="s">
         <v>83</v>
@@ -20225,10 +20183,10 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B608" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C608" t="s">
         <v>26</v>
@@ -20240,7 +20198,7 @@
         <v>3.7</v>
       </c>
       <c r="G608" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H608" t="s">
         <v>83</v>
@@ -20254,10 +20212,10 @@
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B609" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C609" t="s">
         <v>30</v>
@@ -20269,7 +20227,7 @@
         <v>1.4</v>
       </c>
       <c r="G609" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H609" t="s">
         <v>83</v>
@@ -20283,10 +20241,10 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
+        <v>398</v>
+      </c>
+      <c r="B610" t="s">
         <v>404</v>
-      </c>
-      <c r="B610" t="s">
-        <v>410</v>
       </c>
       <c r="C610" t="s">
         <v>96</v>
@@ -20298,7 +20256,7 @@
         <v>2.1</v>
       </c>
       <c r="G610" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H610" t="s">
         <v>83</v>
@@ -20312,10 +20270,10 @@
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B611" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C611" t="s">
         <v>98</v>
@@ -20327,7 +20285,7 @@
         <v>3</v>
       </c>
       <c r="G611" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H611" t="s">
         <v>83</v>
@@ -20341,13 +20299,13 @@
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B612" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C612" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E612">
         <v>2020</v>
@@ -20356,7 +20314,7 @@
         <v>32.6</v>
       </c>
       <c r="G612" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H612" t="s">
         <v>83</v>
@@ -20370,13 +20328,13 @@
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B613" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C613" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E613">
         <v>2020</v>
@@ -20385,7 +20343,7 @@
         <v>5.9</v>
       </c>
       <c r="G613" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H613" t="s">
         <v>83</v>
@@ -20399,13 +20357,13 @@
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B614" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C614" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E614">
         <v>2020</v>
@@ -20414,7 +20372,7 @@
         <v>0.5</v>
       </c>
       <c r="G614" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H614" t="s">
         <v>83</v>
@@ -20428,13 +20386,13 @@
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B615" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C615" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E615">
         <v>2020</v>
@@ -20443,7 +20401,7 @@
         <v>1.8</v>
       </c>
       <c r="G615" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H615" t="s">
         <v>83</v>
@@ -20457,13 +20415,13 @@
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B616" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C616" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E616">
         <v>2020</v>
@@ -20472,7 +20430,7 @@
         <v>3.1</v>
       </c>
       <c r="G616" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H616" t="s">
         <v>83</v>
@@ -20486,13 +20444,13 @@
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B617" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C617" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E617">
         <v>2020</v>
@@ -20501,7 +20459,7 @@
         <v>5.8</v>
       </c>
       <c r="G617" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H617" t="s">
         <v>83</v>
@@ -20515,13 +20473,13 @@
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B618" t="s">
         <v>29</v>
       </c>
       <c r="C618" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E618">
         <v>2020</v>
@@ -20530,7 +20488,7 @@
         <v>13.4</v>
       </c>
       <c r="G618" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H618" t="s">
         <v>83</v>
@@ -20544,10 +20502,10 @@
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B619" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C619" t="s">
         <v>21</v>
@@ -20559,7 +20517,7 @@
         <v>10.1</v>
       </c>
       <c r="G619" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H619" t="s">
         <v>83</v>
@@ -20573,10 +20531,10 @@
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B620" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -20588,7 +20546,7 @@
         <v>15.05</v>
       </c>
       <c r="G620" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H620" t="s">
         <v>83</v>
@@ -20602,10 +20560,10 @@
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B621" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C621" t="s">
         <v>26</v>
@@ -20617,7 +20575,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G621" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H621" t="s">
         <v>83</v>
@@ -20631,10 +20589,10 @@
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B622" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C622" t="s">
         <v>30</v>
@@ -20646,7 +20604,7 @@
         <v>1.2</v>
       </c>
       <c r="G622" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H622" t="s">
         <v>83</v>
@@ -20660,10 +20618,10 @@
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B623" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C623" t="s">
         <v>96</v>
@@ -20675,7 +20633,7 @@
         <v>1.4</v>
       </c>
       <c r="G623" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H623" t="s">
         <v>83</v>
@@ -20689,10 +20647,10 @@
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B624" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C624" t="s">
         <v>98</v>
@@ -20704,7 +20662,7 @@
         <v>3.2</v>
       </c>
       <c r="G624" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H624" t="s">
         <v>83</v>
@@ -20718,13 +20676,13 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B625" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C625" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E625">
         <v>2020</v>
@@ -20733,7 +20691,7 @@
         <v>38.5</v>
       </c>
       <c r="G625" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H625" t="s">
         <v>83</v>
@@ -20747,13 +20705,13 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B626" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C626" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E626">
         <v>2020</v>
@@ -20762,7 +20720,7 @@
         <v>5.3</v>
       </c>
       <c r="G626" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H626" t="s">
         <v>83</v>
@@ -20776,13 +20734,13 @@
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B627" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C627" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E627">
         <v>2020</v>
@@ -20791,7 +20749,7 @@
         <v>0.4</v>
       </c>
       <c r="G627" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H627" t="s">
         <v>83</v>
@@ -20805,13 +20763,13 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B628" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C628" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E628">
         <v>2020</v>
@@ -20820,7 +20778,7 @@
         <v>1.6</v>
       </c>
       <c r="G628" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H628" t="s">
         <v>83</v>
@@ -20834,13 +20792,13 @@
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B629" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C629" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E629">
         <v>2020</v>
@@ -20849,7 +20807,7 @@
         <v>2.4</v>
       </c>
       <c r="G629" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H629" t="s">
         <v>83</v>
@@ -20863,13 +20821,13 @@
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B630" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C630" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E630">
         <v>2020</v>
@@ -20878,7 +20836,7 @@
         <v>5.5</v>
       </c>
       <c r="G630" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H630" t="s">
         <v>83</v>
@@ -20892,13 +20850,13 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B631" t="s">
         <v>29</v>
       </c>
       <c r="C631" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E631">
         <v>2020</v>
@@ -20907,7 +20865,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G631" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H631" t="s">
         <v>83</v>
@@ -20921,10 +20879,10 @@
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B632" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C632" t="s">
         <v>21</v>
@@ -20936,7 +20894,7 @@
         <v>11.1</v>
       </c>
       <c r="G632" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H632" t="s">
         <v>83</v>
@@ -20950,10 +20908,10 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B633" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -20965,7 +20923,7 @@
         <v>14.8</v>
       </c>
       <c r="G633" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H633" t="s">
         <v>83</v>
@@ -20979,10 +20937,10 @@
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B634" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C634" t="s">
         <v>26</v>
@@ -20994,7 +20952,7 @@
         <v>5.6</v>
       </c>
       <c r="G634" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H634" t="s">
         <v>83</v>
@@ -21008,10 +20966,10 @@
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B635" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C635" t="s">
         <v>30</v>
@@ -21023,7 +20981,7 @@
         <v>0.6</v>
       </c>
       <c r="G635" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H635" t="s">
         <v>83</v>
@@ -21037,10 +20995,10 @@
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B636" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C636" t="s">
         <v>96</v>
@@ -21052,7 +21010,7 @@
         <v>0.8</v>
       </c>
       <c r="G636" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H636" t="s">
         <v>83</v>
@@ -21066,10 +21024,10 @@
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B637" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C637" t="s">
         <v>98</v>
@@ -21081,7 +21039,7 @@
         <v>2.5</v>
       </c>
       <c r="G637" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H637" t="s">
         <v>83</v>
@@ -21095,13 +21053,13 @@
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B638" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C638" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E638">
         <v>2020</v>
@@ -21110,7 +21068,7 @@
         <v>39.799999999999997</v>
       </c>
       <c r="G638" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H638" t="s">
         <v>83</v>
@@ -21124,13 +21082,13 @@
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B639" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C639" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E639">
         <v>2020</v>
@@ -21139,7 +21097,7 @@
         <v>4</v>
       </c>
       <c r="G639" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H639" t="s">
         <v>83</v>
@@ -21153,13 +21111,13 @@
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B640" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C640" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E640">
         <v>2020</v>
@@ -21168,7 +21126,7 @@
         <v>0.3</v>
       </c>
       <c r="G640" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H640" t="s">
         <v>83</v>
@@ -21182,13 +21140,13 @@
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B641" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C641" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E641">
         <v>2020</v>
@@ -21197,7 +21155,7 @@
         <v>1.9</v>
       </c>
       <c r="G641" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H641" t="s">
         <v>83</v>
@@ -21211,13 +21169,13 @@
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B642" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C642" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E642">
         <v>2020</v>
@@ -21226,7 +21184,7 @@
         <v>1.3</v>
       </c>
       <c r="G642" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H642" t="s">
         <v>83</v>
@@ -21240,13 +21198,13 @@
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B643" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C643" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E643">
         <v>2020</v>
@@ -21255,7 +21213,7 @@
         <v>7.5</v>
       </c>
       <c r="G643" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H643" t="s">
         <v>83</v>
@@ -21269,13 +21227,13 @@
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B644" t="s">
         <v>29</v>
       </c>
       <c r="C644" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E644">
         <v>2020</v>
@@ -21284,7 +21242,7 @@
         <v>9.6</v>
       </c>
       <c r="G644" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H644" t="s">
         <v>83</v>
@@ -21298,10 +21256,10 @@
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B645" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C645" t="s">
         <v>21</v>
@@ -21313,7 +21271,7 @@
         <v>13.6</v>
       </c>
       <c r="G645" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H645" t="s">
         <v>83</v>
@@ -21327,10 +21285,10 @@
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B646" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -21342,7 +21300,7 @@
         <v>14.5</v>
       </c>
       <c r="G646" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H646" t="s">
         <v>83</v>
@@ -21356,10 +21314,10 @@
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B647" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C647" t="s">
         <v>26</v>
@@ -21371,7 +21329,7 @@
         <v>3</v>
       </c>
       <c r="G647" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H647" t="s">
         <v>83</v>
@@ -21385,10 +21343,10 @@
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B648" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C648" t="s">
         <v>30</v>
@@ -21400,7 +21358,7 @@
         <v>1.7</v>
       </c>
       <c r="G648" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H648" t="s">
         <v>83</v>
@@ -21414,10 +21372,10 @@
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B649" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C649" t="s">
         <v>96</v>
@@ -21429,7 +21387,7 @@
         <v>2.9</v>
       </c>
       <c r="G649" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H649" t="s">
         <v>83</v>
@@ -21443,10 +21401,10 @@
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B650" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C650" t="s">
         <v>98</v>
@@ -21458,7 +21416,7 @@
         <v>2.8</v>
       </c>
       <c r="G650" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H650" t="s">
         <v>83</v>
@@ -21472,13 +21430,13 @@
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B651" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C651" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E651">
         <v>2020</v>
@@ -21487,7 +21445,7 @@
         <v>26.8</v>
       </c>
       <c r="G651" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H651" t="s">
         <v>83</v>
@@ -21501,13 +21459,13 @@
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B652" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C652" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E652">
         <v>2020</v>
@@ -21516,7 +21474,7 @@
         <v>6.1</v>
       </c>
       <c r="G652" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H652" t="s">
         <v>83</v>
@@ -21530,13 +21488,13 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B653" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C653" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E653">
         <v>2020</v>
@@ -21545,7 +21503,7 @@
         <v>0.6</v>
       </c>
       <c r="G653" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H653" t="s">
         <v>83</v>
@@ -21559,13 +21517,13 @@
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B654" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C654" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E654">
         <v>2020</v>
@@ -21574,7 +21532,7 @@
         <v>1.9</v>
       </c>
       <c r="G654" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H654" t="s">
         <v>83</v>
@@ -21588,13 +21546,13 @@
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B655" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C655" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E655">
         <v>2020</v>
@@ -21603,7 +21561,7 @@
         <v>3.4</v>
       </c>
       <c r="G655" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H655" t="s">
         <v>83</v>
@@ -21617,13 +21575,13 @@
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B656" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C656" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E656">
         <v>2020</v>
@@ -21632,7 +21590,7 @@
         <v>6</v>
       </c>
       <c r="G656" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H656" t="s">
         <v>83</v>
@@ -21646,13 +21604,13 @@
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B657" t="s">
         <v>29</v>
       </c>
       <c r="C657" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E657">
         <v>2020</v>
@@ -21661,7 +21619,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="G657" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H657" t="s">
         <v>83</v>
@@ -21675,7 +21633,7 @@
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B658" t="s">
         <v>128</v>
@@ -21684,7 +21642,7 @@
         <v>21</v>
       </c>
       <c r="D658" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E658">
         <v>2020</v>
@@ -21693,7 +21651,7 @@
         <v>91.52</v>
       </c>
       <c r="G658" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I658" t="s">
         <v>53</v>
@@ -21704,7 +21662,7 @@
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B659" t="s">
         <v>129</v>
@@ -21713,7 +21671,7 @@
         <v>28</v>
       </c>
       <c r="D659" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E659">
         <v>2020</v>
@@ -21722,7 +21680,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="G659" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I659" t="s">
         <v>53</v>
@@ -21733,7 +21691,7 @@
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B660" t="s">
         <v>128</v>
@@ -21742,7 +21700,7 @@
         <v>21</v>
       </c>
       <c r="D660" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E660">
         <v>2020</v>
@@ -21751,7 +21709,7 @@
         <v>70.41</v>
       </c>
       <c r="G660" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I660" t="s">
         <v>53</v>
@@ -21762,7 +21720,7 @@
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B661" t="s">
         <v>129</v>
@@ -21771,7 +21729,7 @@
         <v>28</v>
       </c>
       <c r="D661" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E661">
         <v>2020</v>
@@ -21780,7 +21738,7 @@
         <v>16.28</v>
       </c>
       <c r="G661" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I661" t="s">
         <v>53</v>
@@ -21791,7 +21749,7 @@
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B662" t="s">
         <v>128</v>
@@ -21806,10 +21764,10 @@
         <v>91.12</v>
       </c>
       <c r="G662" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H662" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I662" t="s">
         <v>53</v>
@@ -21820,7 +21778,7 @@
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B663" t="s">
         <v>129</v>
@@ -21835,10 +21793,10 @@
         <v>5.69</v>
       </c>
       <c r="G663" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H663" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I663" t="s">
         <v>53</v>
@@ -21849,7 +21807,7 @@
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B664" t="s">
         <v>29</v>
@@ -21864,10 +21822,10 @@
         <v>3.19</v>
       </c>
       <c r="G664" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H664" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I664" t="s">
         <v>53</v>
@@ -21878,10 +21836,10 @@
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B665" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C665" t="s">
         <v>26</v>
@@ -21893,7 +21851,7 @@
         <v>11.16</v>
       </c>
       <c r="G665" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H665" t="s">
         <v>83</v>
@@ -21907,10 +21865,10 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B666" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C666" t="s">
         <v>96</v>
@@ -21922,7 +21880,7 @@
         <v>6.36</v>
       </c>
       <c r="G666" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H666" t="s">
         <v>83</v>
@@ -21936,10 +21894,10 @@
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B667" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C667" t="s">
         <v>21</v>
@@ -21951,7 +21909,7 @@
         <v>34.049999999999997</v>
       </c>
       <c r="G667" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H667" t="s">
         <v>83</v>
@@ -21965,10 +21923,10 @@
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B668" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -21980,7 +21938,7 @@
         <v>26.6</v>
       </c>
       <c r="G668" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H668" t="s">
         <v>83</v>
@@ -21994,10 +21952,10 @@
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
+        <v>422</v>
+      </c>
+      <c r="B669" t="s">
         <v>428</v>
-      </c>
-      <c r="B669" t="s">
-        <v>434</v>
       </c>
       <c r="C669" t="s">
         <v>30</v>
@@ -22009,7 +21967,7 @@
         <v>6.91</v>
       </c>
       <c r="G669" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H669" t="s">
         <v>83</v>
@@ -22023,10 +21981,10 @@
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B670" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C670" t="s">
         <v>98</v>
@@ -22038,7 +21996,7 @@
         <v>0.47</v>
       </c>
       <c r="G670" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H670" t="s">
         <v>83</v>
@@ -22052,13 +22010,13 @@
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B671" t="s">
         <v>29</v>
       </c>
       <c r="C671" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E671">
         <v>2020</v>
@@ -22067,7 +22025,7 @@
         <v>14.45</v>
       </c>
       <c r="G671" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H671" t="s">
         <v>83</v>
@@ -22081,16 +22039,16 @@
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B672" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C672" t="s">
         <v>21</v>
       </c>
       <c r="D672" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E672">
         <v>2020</v>
@@ -22099,7 +22057,7 @@
         <v>35.97</v>
       </c>
       <c r="G672" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I672" t="s">
         <v>53</v>
@@ -22110,16 +22068,16 @@
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B673" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C673" t="s">
         <v>21</v>
       </c>
       <c r="D673" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E673">
         <v>2020</v>
@@ -22128,7 +22086,7 @@
         <v>9.44</v>
       </c>
       <c r="G673" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I673" t="s">
         <v>53</v>
@@ -22139,16 +22097,16 @@
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B674" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
       </c>
       <c r="D674" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E674">
         <v>2020</v>
@@ -22157,7 +22115,7 @@
         <v>26.15</v>
       </c>
       <c r="G674" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I674" t="s">
         <v>53</v>
@@ -22168,16 +22126,16 @@
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B675" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
       </c>
       <c r="D675" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E675">
         <v>2020</v>
@@ -22186,7 +22144,7 @@
         <v>17.11</v>
       </c>
       <c r="G675" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I675" t="s">
         <v>53</v>
@@ -22197,16 +22155,16 @@
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B676" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C676" t="s">
         <v>26</v>
       </c>
       <c r="D676" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E676">
         <v>2020</v>
@@ -22215,7 +22173,7 @@
         <v>26.02</v>
       </c>
       <c r="G676" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I676" t="s">
         <v>53</v>
@@ -22226,16 +22184,16 @@
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B677" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C677" t="s">
         <v>26</v>
       </c>
       <c r="D677" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E677">
         <v>2020</v>
@@ -22244,7 +22202,7 @@
         <v>7.48</v>
       </c>
       <c r="G677" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I677" t="s">
         <v>53</v>
@@ -22255,16 +22213,16 @@
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B678" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C678" t="s">
         <v>30</v>
       </c>
       <c r="D678" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E678">
         <v>2020</v>
@@ -22273,7 +22231,7 @@
         <v>25.79</v>
       </c>
       <c r="G678" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I678" t="s">
         <v>53</v>
@@ -22284,16 +22242,16 @@
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B679" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C679" t="s">
         <v>30</v>
       </c>
       <c r="D679" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E679">
         <v>2020</v>
@@ -22302,7 +22260,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="G679" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I679" t="s">
         <v>53</v>
@@ -22313,16 +22271,16 @@
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B680" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C680" t="s">
         <v>96</v>
       </c>
       <c r="D680" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E680">
         <v>2020</v>
@@ -22331,7 +22289,7 @@
         <v>25.53</v>
       </c>
       <c r="G680" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I680" t="s">
         <v>53</v>
@@ -22342,16 +22300,16 @@
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B681" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C681" t="s">
         <v>96</v>
       </c>
       <c r="D681" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E681">
         <v>2020</v>
@@ -22360,7 +22318,7 @@
         <v>3.99</v>
       </c>
       <c r="G681" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I681" t="s">
         <v>53</v>
@@ -22371,16 +22329,16 @@
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B682" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C682" t="s">
         <v>98</v>
       </c>
       <c r="D682" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E682">
         <v>2020</v>
@@ -22389,7 +22347,7 @@
         <v>25.12</v>
       </c>
       <c r="G682" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I682" t="s">
         <v>53</v>
@@ -22400,16 +22358,16 @@
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B683" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C683" t="s">
         <v>98</v>
       </c>
       <c r="D683" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E683">
         <v>2020</v>
@@ -22418,7 +22376,7 @@
         <v>6.01</v>
       </c>
       <c r="G683" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I683" t="s">
         <v>53</v>
@@ -22429,16 +22387,16 @@
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B684" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C684" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D684" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E684">
         <v>2020</v>
@@ -22447,7 +22405,7 @@
         <v>21.63</v>
       </c>
       <c r="G684" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I684" t="s">
         <v>53</v>
@@ -22458,16 +22416,16 @@
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B685" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C685" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D685" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E685">
         <v>2020</v>
@@ -22476,7 +22434,7 @@
         <v>3.94</v>
       </c>
       <c r="G685" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I685" t="s">
         <v>53</v>
@@ -22487,10 +22445,10 @@
     </row>
     <row r="686" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C686" s="1">
         <v>1</v>
@@ -22503,7 +22461,7 @@
         <v>12</v>
       </c>
       <c r="G686" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H686" s="1" t="s">
         <v>83</v>
@@ -22514,10 +22472,10 @@
     </row>
     <row r="687" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C687" s="1">
         <v>2</v>
@@ -22530,7 +22488,7 @@
         <v>41.5</v>
       </c>
       <c r="G687" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H687" s="1" t="s">
         <v>83</v>
@@ -22541,10 +22499,10 @@
     </row>
     <row r="688" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C688" s="1">
         <v>3</v>
@@ -22557,7 +22515,7 @@
         <v>45</v>
       </c>
       <c r="G688" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H688" s="1" t="s">
         <v>83</v>
@@ -22568,10 +22526,10 @@
     </row>
     <row r="689" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C689" s="1">
         <v>4</v>
@@ -22584,7 +22542,7 @@
         <v>1</v>
       </c>
       <c r="G689" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H689" s="1" t="s">
         <v>83</v>
@@ -22595,7 +22553,7 @@
     </row>
     <row r="690" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>128</v>
@@ -22611,7 +22569,7 @@
         <v>79.540000000000006</v>
       </c>
       <c r="G690" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H690" s="1" t="s">
         <v>83</v>
@@ -22622,7 +22580,7 @@
     </row>
     <row r="691" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>128</v>
@@ -22638,7 +22596,7 @@
         <v>70.25</v>
       </c>
       <c r="G691" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H691" s="1" t="s">
         <v>83</v>
@@ -22649,7 +22607,7 @@
     </row>
     <row r="692" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>129</v>
@@ -22665,7 +22623,7 @@
         <v>20.46</v>
       </c>
       <c r="G692" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H692" s="1" t="s">
         <v>83</v>
@@ -22676,7 +22634,7 @@
     </row>
     <row r="693" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>129</v>
@@ -22692,7 +22650,7 @@
         <v>26.21</v>
       </c>
       <c r="G693" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H693" s="1" t="s">
         <v>83</v>
@@ -22703,7 +22661,7 @@
     </row>
     <row r="694" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>29</v>
@@ -22719,7 +22677,7 @@
         <v>3.53</v>
       </c>
       <c r="G694" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H694" s="1" t="s">
         <v>83</v>
